--- a/data-raw/polifenoli/2020/polifenoli_HPLC_foglie.xlsx
+++ b/data-raw/polifenoli/2020/polifenoli_HPLC_foglie.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fabio\Desktop\file progetto\polifenoli veri\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fabio\Desktop\file progetto\polifenoli veri\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAC1C92C-AB07-4197-B8DE-8F52010D7720}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{983D08C2-08D9-46A1-ACE4-53FB2C989D98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D42F1501-9FEC-4851-B7BD-B10C81F9B577}"/>
+    <workbookView xWindow="18255" yWindow="3630" windowWidth="25275" windowHeight="13755" xr2:uid="{D42F1501-9FEC-4851-B7BD-B10C81F9B577}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="482" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="860" uniqueCount="45">
   <si>
     <t>Idrossitirosolo</t>
   </si>
@@ -213,9 +213,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -530,10 +533,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E03D495E-A126-4E9F-BFBD-A4AD086A31CB}">
-  <dimension ref="A1:N157"/>
+  <dimension ref="A1:N283"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView tabSelected="1" topLeftCell="A210" workbookViewId="0">
+      <selection activeCell="A221" sqref="A221:N283"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7458,6 +7461,5550 @@
         <v>6.24</v>
       </c>
     </row>
+    <row r="158" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A158" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B158" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C158" s="2">
+        <v>2021</v>
+      </c>
+      <c r="D158" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E158" s="2">
+        <v>5</v>
+      </c>
+      <c r="F158" s="2">
+        <v>3.1</v>
+      </c>
+      <c r="G158" s="2">
+        <v>1</v>
+      </c>
+      <c r="H158" s="2">
+        <v>1572.2070000000001</v>
+      </c>
+      <c r="I158" s="2">
+        <v>697.67100000000005</v>
+      </c>
+      <c r="J158" s="2">
+        <v>5.9969999999999999</v>
+      </c>
+      <c r="K158" s="2">
+        <v>5.8810000000000002</v>
+      </c>
+      <c r="L158" s="2">
+        <v>1.8759999999999999</v>
+      </c>
+      <c r="M158" s="2">
+        <v>136.92400000000001</v>
+      </c>
+      <c r="N158" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A159" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B159" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C159" s="2">
+        <v>2021</v>
+      </c>
+      <c r="D159" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E159" s="2">
+        <v>5</v>
+      </c>
+      <c r="F159" s="2">
+        <v>3.1</v>
+      </c>
+      <c r="G159" s="2">
+        <v>1</v>
+      </c>
+      <c r="H159" s="2">
+        <v>1588.25</v>
+      </c>
+      <c r="I159" s="2">
+        <v>702.35799999999995</v>
+      </c>
+      <c r="J159" s="2">
+        <v>6.5780000000000003</v>
+      </c>
+      <c r="K159" s="2">
+        <v>4.9939999999999998</v>
+      </c>
+      <c r="L159" s="2">
+        <v>1.623</v>
+      </c>
+      <c r="M159" s="2">
+        <v>142.69800000000001</v>
+      </c>
+      <c r="N159" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A160" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B160" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C160" s="2">
+        <v>2021</v>
+      </c>
+      <c r="D160" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E160" s="2">
+        <v>5</v>
+      </c>
+      <c r="F160" s="2">
+        <v>3.1</v>
+      </c>
+      <c r="G160" s="2">
+        <v>1</v>
+      </c>
+      <c r="H160" s="2">
+        <v>1603.6320000000001</v>
+      </c>
+      <c r="I160" s="2">
+        <v>687.22500000000002</v>
+      </c>
+      <c r="J160" s="2">
+        <v>6.0469999999999997</v>
+      </c>
+      <c r="K160" s="2">
+        <v>3.33</v>
+      </c>
+      <c r="L160" s="2">
+        <v>1.2569999999999999</v>
+      </c>
+      <c r="M160" s="2">
+        <v>146.38</v>
+      </c>
+      <c r="N160" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A161" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B161" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C161" s="2">
+        <v>2021</v>
+      </c>
+      <c r="D161" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E161" s="2">
+        <v>5</v>
+      </c>
+      <c r="F161" s="2">
+        <v>3.5</v>
+      </c>
+      <c r="G161" s="2">
+        <v>1</v>
+      </c>
+      <c r="H161" s="2">
+        <v>1144.6199999999999</v>
+      </c>
+      <c r="I161" s="2">
+        <v>672.76099999999997</v>
+      </c>
+      <c r="J161" s="2">
+        <v>6.508</v>
+      </c>
+      <c r="K161" s="2">
+        <v>5.1280000000000001</v>
+      </c>
+      <c r="L161" s="2">
+        <v>1.5389999999999999</v>
+      </c>
+      <c r="M161" s="2">
+        <v>202.91200000000001</v>
+      </c>
+      <c r="N161" s="2">
+        <v>3.149</v>
+      </c>
+    </row>
+    <row r="162" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A162" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B162" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C162" s="2">
+        <v>2021</v>
+      </c>
+      <c r="D162" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E162" s="2">
+        <v>5</v>
+      </c>
+      <c r="F162" s="2">
+        <v>3.5</v>
+      </c>
+      <c r="G162" s="2">
+        <v>1</v>
+      </c>
+      <c r="H162" s="2">
+        <v>1095.623</v>
+      </c>
+      <c r="I162" s="2">
+        <v>588.245</v>
+      </c>
+      <c r="J162" s="2">
+        <v>6.024</v>
+      </c>
+      <c r="K162" s="2">
+        <v>3.9119999999999999</v>
+      </c>
+      <c r="L162" s="2">
+        <v>1.123</v>
+      </c>
+      <c r="M162" s="2">
+        <v>198.26499999999999</v>
+      </c>
+      <c r="N162" s="2">
+        <v>2.056</v>
+      </c>
+    </row>
+    <row r="163" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A163" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B163" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C163" s="2">
+        <v>2021</v>
+      </c>
+      <c r="D163" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E163" s="2">
+        <v>5</v>
+      </c>
+      <c r="F163" s="2">
+        <v>3.5</v>
+      </c>
+      <c r="G163" s="2">
+        <v>1</v>
+      </c>
+      <c r="H163" s="2">
+        <v>1129.2449999999999</v>
+      </c>
+      <c r="I163" s="2">
+        <v>621.32000000000005</v>
+      </c>
+      <c r="J163" s="2">
+        <v>5.125</v>
+      </c>
+      <c r="K163" s="2">
+        <v>4.42</v>
+      </c>
+      <c r="L163" s="2">
+        <v>1.6970000000000001</v>
+      </c>
+      <c r="M163" s="2">
+        <v>215.36</v>
+      </c>
+      <c r="N163" s="2">
+        <v>2.5779999999999998</v>
+      </c>
+    </row>
+    <row r="164" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A164" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B164" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C164" s="2">
+        <v>2021</v>
+      </c>
+      <c r="D164" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E164" s="2">
+        <v>5</v>
+      </c>
+      <c r="F164" s="2">
+        <v>3.25</v>
+      </c>
+      <c r="G164" s="2">
+        <v>1</v>
+      </c>
+      <c r="H164" s="2">
+        <v>843.84100000000001</v>
+      </c>
+      <c r="I164" s="2">
+        <v>440.38600000000002</v>
+      </c>
+      <c r="J164" s="2">
+        <v>4.0599999999999996</v>
+      </c>
+      <c r="K164" s="2">
+        <v>5.4960000000000004</v>
+      </c>
+      <c r="L164" s="2">
+        <v>1.5840000000000001</v>
+      </c>
+      <c r="M164" s="2">
+        <v>51.362000000000002</v>
+      </c>
+      <c r="N164" s="2">
+        <v>2.62</v>
+      </c>
+    </row>
+    <row r="165" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A165" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B165" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C165" s="2">
+        <v>2021</v>
+      </c>
+      <c r="D165" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E165" s="2">
+        <v>5</v>
+      </c>
+      <c r="F165" s="2">
+        <v>3.25</v>
+      </c>
+      <c r="G165" s="2">
+        <v>1</v>
+      </c>
+      <c r="H165" s="2">
+        <v>912.56799999999998</v>
+      </c>
+      <c r="I165" s="2">
+        <v>451.23599999999999</v>
+      </c>
+      <c r="J165" s="2">
+        <v>3.6539999999999999</v>
+      </c>
+      <c r="K165" s="2">
+        <v>3.4780000000000002</v>
+      </c>
+      <c r="L165" s="2">
+        <v>1.0589999999999999</v>
+      </c>
+      <c r="M165" s="2">
+        <v>68.247</v>
+      </c>
+      <c r="N165" s="2">
+        <v>3.01</v>
+      </c>
+    </row>
+    <row r="166" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A166" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B166" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C166" s="2">
+        <v>2021</v>
+      </c>
+      <c r="D166" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E166" s="2">
+        <v>5</v>
+      </c>
+      <c r="F166" s="2">
+        <v>3.25</v>
+      </c>
+      <c r="G166" s="2">
+        <v>1</v>
+      </c>
+      <c r="H166" s="2">
+        <v>886.33699999999999</v>
+      </c>
+      <c r="I166" s="2">
+        <v>409.678</v>
+      </c>
+      <c r="J166" s="2">
+        <v>3.8889999999999998</v>
+      </c>
+      <c r="K166" s="2">
+        <v>4.1180000000000003</v>
+      </c>
+      <c r="L166" s="2">
+        <v>1.673</v>
+      </c>
+      <c r="M166" s="2">
+        <v>59.347000000000001</v>
+      </c>
+      <c r="N166" s="2">
+        <v>2.35</v>
+      </c>
+    </row>
+    <row r="167" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A167" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B167" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C167" s="2">
+        <v>2021</v>
+      </c>
+      <c r="D167" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E167" s="2">
+        <v>5</v>
+      </c>
+      <c r="F167" s="2">
+        <v>3.3</v>
+      </c>
+      <c r="G167" s="2">
+        <v>1</v>
+      </c>
+      <c r="H167" s="2">
+        <v>1096.1969999999999</v>
+      </c>
+      <c r="I167" s="2">
+        <v>444.726</v>
+      </c>
+      <c r="J167" s="2">
+        <v>6.2240000000000002</v>
+      </c>
+      <c r="K167" s="2">
+        <v>6.46</v>
+      </c>
+      <c r="L167" s="2">
+        <v>2.7589999999999999</v>
+      </c>
+      <c r="M167" s="2">
+        <v>109.122</v>
+      </c>
+      <c r="N167" s="2">
+        <v>3.2080000000000002</v>
+      </c>
+    </row>
+    <row r="168" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A168" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B168" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C168" s="2">
+        <v>2021</v>
+      </c>
+      <c r="D168" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E168" s="2">
+        <v>5</v>
+      </c>
+      <c r="F168" s="2">
+        <v>3.3</v>
+      </c>
+      <c r="G168" s="2">
+        <v>1</v>
+      </c>
+      <c r="H168" s="2">
+        <v>1156.9870000000001</v>
+      </c>
+      <c r="I168" s="2">
+        <v>468.57100000000003</v>
+      </c>
+      <c r="J168" s="2">
+        <v>5.2489999999999997</v>
+      </c>
+      <c r="K168" s="2">
+        <v>5.6680000000000001</v>
+      </c>
+      <c r="L168" s="2">
+        <v>1.954</v>
+      </c>
+      <c r="M168" s="2">
+        <v>153.267</v>
+      </c>
+      <c r="N168" s="2">
+        <v>2.6469999999999998</v>
+      </c>
+    </row>
+    <row r="169" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A169" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B169" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C169" s="2">
+        <v>2021</v>
+      </c>
+      <c r="D169" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E169" s="2">
+        <v>5</v>
+      </c>
+      <c r="F169" s="2">
+        <v>3.3</v>
+      </c>
+      <c r="G169" s="2">
+        <v>1</v>
+      </c>
+      <c r="H169" s="2">
+        <v>1108.6869999999999</v>
+      </c>
+      <c r="I169" s="2">
+        <v>433.28699999999998</v>
+      </c>
+      <c r="J169" s="2">
+        <v>5.6870000000000003</v>
+      </c>
+      <c r="K169" s="2">
+        <v>6.024</v>
+      </c>
+      <c r="L169" s="2">
+        <v>2.5430000000000001</v>
+      </c>
+      <c r="M169" s="2">
+        <v>127.334</v>
+      </c>
+      <c r="N169" s="2">
+        <v>3.0870000000000002</v>
+      </c>
+    </row>
+    <row r="170" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A170" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B170" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C170" s="2">
+        <v>2021</v>
+      </c>
+      <c r="D170" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E170" s="2">
+        <v>5</v>
+      </c>
+      <c r="F170" s="2">
+        <v>3.43</v>
+      </c>
+      <c r="G170" s="2">
+        <v>1</v>
+      </c>
+      <c r="H170" s="2">
+        <v>952.41899999999998</v>
+      </c>
+      <c r="I170" s="2">
+        <v>579.33900000000006</v>
+      </c>
+      <c r="J170" s="2">
+        <v>7.4370000000000003</v>
+      </c>
+      <c r="K170" s="2">
+        <v>5.4939999999999998</v>
+      </c>
+      <c r="L170" s="2">
+        <v>2.5329999999999999</v>
+      </c>
+      <c r="M170" s="2">
+        <v>144.56800000000001</v>
+      </c>
+      <c r="N170" s="2">
+        <v>5.141</v>
+      </c>
+    </row>
+    <row r="171" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A171" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B171" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C171" s="2">
+        <v>2021</v>
+      </c>
+      <c r="D171" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E171" s="2">
+        <v>5</v>
+      </c>
+      <c r="F171" s="2">
+        <v>3.43</v>
+      </c>
+      <c r="G171" s="2">
+        <v>1</v>
+      </c>
+      <c r="H171" s="2">
+        <v>1031.221</v>
+      </c>
+      <c r="I171" s="2">
+        <v>624.57799999999997</v>
+      </c>
+      <c r="J171" s="2">
+        <v>5.9960000000000004</v>
+      </c>
+      <c r="K171" s="2">
+        <v>6.0140000000000002</v>
+      </c>
+      <c r="L171" s="2">
+        <v>2.214</v>
+      </c>
+      <c r="M171" s="2">
+        <v>156.37899999999999</v>
+      </c>
+      <c r="N171" s="2">
+        <v>4.5970000000000004</v>
+      </c>
+    </row>
+    <row r="172" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A172" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B172" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C172" s="2">
+        <v>2021</v>
+      </c>
+      <c r="D172" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E172" s="2">
+        <v>5</v>
+      </c>
+      <c r="F172" s="2">
+        <v>3.43</v>
+      </c>
+      <c r="G172" s="2">
+        <v>1</v>
+      </c>
+      <c r="H172" s="2">
+        <v>995.34699999999998</v>
+      </c>
+      <c r="I172" s="2">
+        <v>595.22400000000005</v>
+      </c>
+      <c r="J172" s="2">
+        <v>6.9870000000000001</v>
+      </c>
+      <c r="K172" s="2">
+        <v>5.9240000000000004</v>
+      </c>
+      <c r="L172" s="2">
+        <v>3.0139999999999998</v>
+      </c>
+      <c r="M172" s="2">
+        <v>155.678</v>
+      </c>
+      <c r="N172" s="2">
+        <v>5.1230000000000002</v>
+      </c>
+    </row>
+    <row r="173" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A173" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B173" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C173" s="2">
+        <v>2021</v>
+      </c>
+      <c r="D173" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E173" s="2">
+        <v>5</v>
+      </c>
+      <c r="F173" s="2">
+        <v>3.48</v>
+      </c>
+      <c r="G173" s="2">
+        <v>1</v>
+      </c>
+      <c r="H173" s="2">
+        <v>1463.1010000000001</v>
+      </c>
+      <c r="I173" s="2">
+        <v>467.42700000000002</v>
+      </c>
+      <c r="J173" s="2">
+        <v>9.2840000000000007</v>
+      </c>
+      <c r="K173" s="2">
+        <v>6.9870000000000001</v>
+      </c>
+      <c r="L173" s="2">
+        <v>7.2720000000000002</v>
+      </c>
+      <c r="M173" s="2">
+        <v>141.69499999999999</v>
+      </c>
+      <c r="N173" s="2">
+        <v>7.266</v>
+      </c>
+    </row>
+    <row r="174" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A174" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B174" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C174" s="2">
+        <v>2021</v>
+      </c>
+      <c r="D174" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E174" s="2">
+        <v>5</v>
+      </c>
+      <c r="F174" s="2">
+        <v>3.48</v>
+      </c>
+      <c r="G174" s="2">
+        <v>1</v>
+      </c>
+      <c r="H174" s="2">
+        <v>1495.3320000000001</v>
+      </c>
+      <c r="I174" s="2">
+        <v>501.35399999999998</v>
+      </c>
+      <c r="J174" s="2">
+        <v>8.6210000000000004</v>
+      </c>
+      <c r="K174" s="2">
+        <v>7.0529999999999999</v>
+      </c>
+      <c r="L174" s="2">
+        <v>7.0149999999999997</v>
+      </c>
+      <c r="M174" s="2">
+        <v>153.697</v>
+      </c>
+      <c r="N174" s="2">
+        <v>6.8719999999999999</v>
+      </c>
+    </row>
+    <row r="175" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A175" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B175" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C175" s="2">
+        <v>2021</v>
+      </c>
+      <c r="D175" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E175" s="2">
+        <v>5</v>
+      </c>
+      <c r="F175" s="2">
+        <v>3.48</v>
+      </c>
+      <c r="G175" s="2">
+        <v>1</v>
+      </c>
+      <c r="H175" s="2">
+        <v>1473.654</v>
+      </c>
+      <c r="I175" s="2">
+        <v>476.59699999999998</v>
+      </c>
+      <c r="J175" s="2">
+        <v>9.0459999999999994</v>
+      </c>
+      <c r="K175" s="2">
+        <v>7.0049999999999999</v>
+      </c>
+      <c r="L175" s="2">
+        <v>6.9870000000000001</v>
+      </c>
+      <c r="M175" s="2">
+        <v>148.33199999999999</v>
+      </c>
+      <c r="N175" s="2">
+        <v>7.024</v>
+      </c>
+    </row>
+    <row r="176" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A176" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B176" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C176" s="2">
+        <v>2021</v>
+      </c>
+      <c r="D176" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E176" s="2">
+        <v>5</v>
+      </c>
+      <c r="F176" s="2">
+        <v>3.43</v>
+      </c>
+      <c r="G176" s="2">
+        <v>1</v>
+      </c>
+      <c r="H176" s="2">
+        <v>1463.4079999999999</v>
+      </c>
+      <c r="I176" s="2">
+        <v>486.59500000000003</v>
+      </c>
+      <c r="J176" s="2">
+        <v>7.2560000000000002</v>
+      </c>
+      <c r="K176" s="2">
+        <v>11.132999999999999</v>
+      </c>
+      <c r="L176" s="2">
+        <v>2.2869999999999999</v>
+      </c>
+      <c r="M176" s="2">
+        <v>110.16</v>
+      </c>
+      <c r="N176" s="2">
+        <v>3.5750000000000002</v>
+      </c>
+    </row>
+    <row r="177" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A177" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B177" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C177" s="2">
+        <v>2021</v>
+      </c>
+      <c r="D177" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E177" s="2">
+        <v>5</v>
+      </c>
+      <c r="F177" s="2">
+        <v>3.43</v>
+      </c>
+      <c r="G177" s="2">
+        <v>1</v>
+      </c>
+      <c r="H177" s="2">
+        <v>1473.2670000000001</v>
+      </c>
+      <c r="I177" s="2">
+        <v>492.37200000000001</v>
+      </c>
+      <c r="J177" s="2">
+        <v>7.1159999999999997</v>
+      </c>
+      <c r="K177" s="2">
+        <v>10.743</v>
+      </c>
+      <c r="L177" s="2">
+        <v>1.9339999999999999</v>
+      </c>
+      <c r="M177" s="2">
+        <v>125.34699999999999</v>
+      </c>
+      <c r="N177" s="2">
+        <v>2.9340000000000002</v>
+      </c>
+    </row>
+    <row r="178" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A178" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B178" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C178" s="2">
+        <v>2021</v>
+      </c>
+      <c r="D178" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E178" s="2">
+        <v>5</v>
+      </c>
+      <c r="F178" s="2">
+        <v>3.43</v>
+      </c>
+      <c r="G178" s="2">
+        <v>1</v>
+      </c>
+      <c r="H178" s="2">
+        <v>1453.7159999999999</v>
+      </c>
+      <c r="I178" s="2">
+        <v>500.37799999999999</v>
+      </c>
+      <c r="J178" s="2">
+        <v>7.2670000000000003</v>
+      </c>
+      <c r="K178" s="2">
+        <v>11.266999999999999</v>
+      </c>
+      <c r="L178" s="2">
+        <v>2.3140000000000001</v>
+      </c>
+      <c r="M178" s="2">
+        <v>118.24</v>
+      </c>
+      <c r="N178" s="2">
+        <v>3.2170000000000001</v>
+      </c>
+    </row>
+    <row r="179" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A179" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B179" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C179" s="2">
+        <v>2021</v>
+      </c>
+      <c r="D179" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E179" s="2">
+        <v>5</v>
+      </c>
+      <c r="F179" s="2">
+        <v>3.42</v>
+      </c>
+      <c r="G179" s="2">
+        <v>1</v>
+      </c>
+      <c r="H179" s="2">
+        <v>1057.586</v>
+      </c>
+      <c r="I179" s="2">
+        <v>370.87799999999999</v>
+      </c>
+      <c r="J179" s="2">
+        <v>5.5430000000000001</v>
+      </c>
+      <c r="K179" s="2">
+        <v>8.6449999999999996</v>
+      </c>
+      <c r="L179" s="2">
+        <v>2.1880000000000002</v>
+      </c>
+      <c r="M179" s="2">
+        <v>51.567</v>
+      </c>
+      <c r="N179" s="2">
+        <v>3.1579999999999999</v>
+      </c>
+    </row>
+    <row r="180" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A180" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B180" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C180" s="2">
+        <v>2021</v>
+      </c>
+      <c r="D180" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E180" s="2">
+        <v>5</v>
+      </c>
+      <c r="F180" s="2">
+        <v>3.42</v>
+      </c>
+      <c r="G180" s="2">
+        <v>1</v>
+      </c>
+      <c r="H180" s="2">
+        <v>1153.68</v>
+      </c>
+      <c r="I180" s="2">
+        <v>378.661</v>
+      </c>
+      <c r="J180" s="2">
+        <v>6.1269999999999998</v>
+      </c>
+      <c r="K180" s="2">
+        <v>7.992</v>
+      </c>
+      <c r="L180" s="2">
+        <v>1.8340000000000001</v>
+      </c>
+      <c r="M180" s="2">
+        <v>55.677999999999997</v>
+      </c>
+      <c r="N180" s="2">
+        <v>2.9750000000000001</v>
+      </c>
+    </row>
+    <row r="181" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A181" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B181" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C181" s="2">
+        <v>2021</v>
+      </c>
+      <c r="D181" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E181" s="2">
+        <v>5</v>
+      </c>
+      <c r="F181" s="2">
+        <v>3.42</v>
+      </c>
+      <c r="G181" s="2">
+        <v>1</v>
+      </c>
+      <c r="H181" s="2">
+        <v>1143.1469999999999</v>
+      </c>
+      <c r="I181" s="2">
+        <v>364.267</v>
+      </c>
+      <c r="J181" s="2">
+        <v>5.6790000000000003</v>
+      </c>
+      <c r="K181" s="2">
+        <v>9.2469999999999999</v>
+      </c>
+      <c r="L181" s="2">
+        <v>2.0670000000000002</v>
+      </c>
+      <c r="M181" s="2">
+        <v>48.331000000000003</v>
+      </c>
+      <c r="N181" s="2">
+        <v>3.0670000000000002</v>
+      </c>
+    </row>
+    <row r="182" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A182" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B182" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C182" s="2">
+        <v>2021</v>
+      </c>
+      <c r="D182" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E182" s="2">
+        <v>5</v>
+      </c>
+      <c r="F182" s="2">
+        <v>3.37</v>
+      </c>
+      <c r="G182" s="2">
+        <v>1</v>
+      </c>
+      <c r="H182" s="2">
+        <v>998.33500000000004</v>
+      </c>
+      <c r="I182" s="2">
+        <v>415.73899999999998</v>
+      </c>
+      <c r="J182" s="2">
+        <v>3.78</v>
+      </c>
+      <c r="K182" s="2">
+        <v>7.3520000000000003</v>
+      </c>
+      <c r="L182" s="2">
+        <v>2.012</v>
+      </c>
+      <c r="M182" s="2">
+        <v>30.332999999999998</v>
+      </c>
+      <c r="N182" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="183" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A183" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B183" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C183" s="2">
+        <v>2021</v>
+      </c>
+      <c r="D183" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E183" s="2">
+        <v>5</v>
+      </c>
+      <c r="F183" s="2">
+        <v>3.37</v>
+      </c>
+      <c r="G183" s="2">
+        <v>1</v>
+      </c>
+      <c r="H183" s="2">
+        <v>1024.9639999999999</v>
+      </c>
+      <c r="I183" s="2">
+        <v>446.89</v>
+      </c>
+      <c r="J183" s="2">
+        <v>4.016</v>
+      </c>
+      <c r="K183" s="2">
+        <v>7.9340000000000002</v>
+      </c>
+      <c r="L183" s="2">
+        <v>1.5669999999999999</v>
+      </c>
+      <c r="M183" s="2">
+        <v>33.247</v>
+      </c>
+      <c r="N183" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="184" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A184" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B184" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C184" s="2">
+        <v>2021</v>
+      </c>
+      <c r="D184" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E184" s="2">
+        <v>5</v>
+      </c>
+      <c r="F184" s="2">
+        <v>3.37</v>
+      </c>
+      <c r="G184" s="2">
+        <v>1</v>
+      </c>
+      <c r="H184" s="2">
+        <v>1002.58</v>
+      </c>
+      <c r="I184" s="2">
+        <v>426.79199999999997</v>
+      </c>
+      <c r="J184" s="2">
+        <v>3.9870000000000001</v>
+      </c>
+      <c r="K184" s="2">
+        <v>6.9909999999999997</v>
+      </c>
+      <c r="L184" s="2">
+        <v>2.214</v>
+      </c>
+      <c r="M184" s="2">
+        <v>34.670999999999999</v>
+      </c>
+      <c r="N184" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="185" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A185" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B185" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C185" s="2">
+        <v>2021</v>
+      </c>
+      <c r="D185" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E185" s="2">
+        <v>5</v>
+      </c>
+      <c r="F185" s="2">
+        <v>3.4</v>
+      </c>
+      <c r="G185" s="2">
+        <v>1</v>
+      </c>
+      <c r="H185" s="2">
+        <v>1068.0350000000001</v>
+      </c>
+      <c r="I185" s="2">
+        <v>614.23800000000006</v>
+      </c>
+      <c r="J185" s="2">
+        <v>15.095000000000001</v>
+      </c>
+      <c r="K185" s="2">
+        <v>3.7320000000000002</v>
+      </c>
+      <c r="L185" s="2">
+        <v>15.1</v>
+      </c>
+      <c r="M185" s="2">
+        <v>641.04600000000005</v>
+      </c>
+      <c r="N185" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="186" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A186" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B186" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C186" s="2">
+        <v>2021</v>
+      </c>
+      <c r="D186" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E186" s="2">
+        <v>5</v>
+      </c>
+      <c r="F186" s="2">
+        <v>3.4</v>
+      </c>
+      <c r="G186" s="2">
+        <v>1</v>
+      </c>
+      <c r="H186" s="2">
+        <v>1128.972</v>
+      </c>
+      <c r="I186" s="2">
+        <v>623.77800000000002</v>
+      </c>
+      <c r="J186" s="2">
+        <v>16.356999999999999</v>
+      </c>
+      <c r="K186" s="2">
+        <v>4.1280000000000001</v>
+      </c>
+      <c r="L186" s="2">
+        <v>10.278</v>
+      </c>
+      <c r="M186" s="2">
+        <v>665.23699999999997</v>
+      </c>
+      <c r="N186" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="187" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A187" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B187" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C187" s="2">
+        <v>2021</v>
+      </c>
+      <c r="D187" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E187" s="2">
+        <v>5</v>
+      </c>
+      <c r="F187" s="2">
+        <v>3.4</v>
+      </c>
+      <c r="G187" s="2">
+        <v>1</v>
+      </c>
+      <c r="H187" s="2">
+        <v>1098.2539999999999</v>
+      </c>
+      <c r="I187" s="2">
+        <v>634.23699999999997</v>
+      </c>
+      <c r="J187" s="2">
+        <v>15.664</v>
+      </c>
+      <c r="K187" s="2">
+        <v>3.964</v>
+      </c>
+      <c r="L187" s="2">
+        <v>14.266999999999999</v>
+      </c>
+      <c r="M187" s="2">
+        <v>652.33000000000004</v>
+      </c>
+      <c r="N187" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="188" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A188" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B188" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C188" s="2">
+        <v>2021</v>
+      </c>
+      <c r="D188" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E188" s="2">
+        <v>5</v>
+      </c>
+      <c r="F188" s="2">
+        <v>3.58</v>
+      </c>
+      <c r="G188" s="2">
+        <v>1</v>
+      </c>
+      <c r="H188" s="2">
+        <v>1481.076</v>
+      </c>
+      <c r="I188" s="2">
+        <v>551.64599999999996</v>
+      </c>
+      <c r="J188" s="2">
+        <v>12.765000000000001</v>
+      </c>
+      <c r="K188" s="2">
+        <v>4.4009999999999998</v>
+      </c>
+      <c r="L188" s="2">
+        <v>8.0500000000000007</v>
+      </c>
+      <c r="M188" s="2">
+        <v>662.33299999999997</v>
+      </c>
+      <c r="N188" s="2">
+        <v>12.252000000000001</v>
+      </c>
+    </row>
+    <row r="189" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A189" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B189" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C189" s="2">
+        <v>2021</v>
+      </c>
+      <c r="D189" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E189" s="2">
+        <v>5</v>
+      </c>
+      <c r="F189" s="2">
+        <v>3.58</v>
+      </c>
+      <c r="G189" s="2">
+        <v>1</v>
+      </c>
+      <c r="H189" s="2">
+        <v>1452.31</v>
+      </c>
+      <c r="I189" s="2">
+        <v>567.98199999999997</v>
+      </c>
+      <c r="J189" s="2">
+        <v>10.978</v>
+      </c>
+      <c r="K189" s="2">
+        <v>4.6269999999999998</v>
+      </c>
+      <c r="L189" s="2">
+        <v>6.9909999999999997</v>
+      </c>
+      <c r="M189" s="2">
+        <v>675.245</v>
+      </c>
+      <c r="N189" s="2">
+        <v>10.365</v>
+      </c>
+    </row>
+    <row r="190" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A190" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B190" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C190" s="2">
+        <v>2021</v>
+      </c>
+      <c r="D190" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E190" s="2">
+        <v>5</v>
+      </c>
+      <c r="F190" s="2">
+        <v>3.58</v>
+      </c>
+      <c r="G190" s="2">
+        <v>1</v>
+      </c>
+      <c r="H190" s="2">
+        <v>1477.7919999999999</v>
+      </c>
+      <c r="I190" s="2">
+        <v>559.34500000000003</v>
+      </c>
+      <c r="J190" s="2">
+        <v>11.577999999999999</v>
+      </c>
+      <c r="K190" s="2">
+        <v>4.2370000000000001</v>
+      </c>
+      <c r="L190" s="2">
+        <v>7.9530000000000003</v>
+      </c>
+      <c r="M190" s="2">
+        <v>659.77</v>
+      </c>
+      <c r="N190" s="2">
+        <v>12.037000000000001</v>
+      </c>
+    </row>
+    <row r="191" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A191" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B191" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C191" s="2">
+        <v>2021</v>
+      </c>
+      <c r="D191" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E191" s="2">
+        <v>5</v>
+      </c>
+      <c r="F191" s="2">
+        <v>3.13</v>
+      </c>
+      <c r="G191" s="2">
+        <v>1</v>
+      </c>
+      <c r="H191" s="2">
+        <v>1134.4849999999999</v>
+      </c>
+      <c r="I191" s="2">
+        <v>578.20000000000005</v>
+      </c>
+      <c r="J191" s="2">
+        <v>11.956</v>
+      </c>
+      <c r="K191" s="2">
+        <v>1.5409999999999999</v>
+      </c>
+      <c r="L191" s="2">
+        <v>4.7859999999999996</v>
+      </c>
+      <c r="M191" s="2">
+        <v>984.79399999999998</v>
+      </c>
+      <c r="N191" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="192" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A192" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B192" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C192" s="2">
+        <v>2021</v>
+      </c>
+      <c r="D192" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E192" s="2">
+        <v>5</v>
+      </c>
+      <c r="F192" s="2">
+        <v>3.13</v>
+      </c>
+      <c r="G192" s="2">
+        <v>1</v>
+      </c>
+      <c r="H192" s="2">
+        <v>1125.67</v>
+      </c>
+      <c r="I192" s="2">
+        <v>581.03200000000004</v>
+      </c>
+      <c r="J192" s="2">
+        <v>12.231</v>
+      </c>
+      <c r="K192" s="2">
+        <v>1.452</v>
+      </c>
+      <c r="L192" s="2">
+        <v>5.0119999999999996</v>
+      </c>
+      <c r="M192" s="2">
+        <v>1023.48</v>
+      </c>
+      <c r="N192" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="193" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A193" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B193" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C193" s="2">
+        <v>2021</v>
+      </c>
+      <c r="D193" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E193" s="2">
+        <v>5</v>
+      </c>
+      <c r="F193" s="2">
+        <v>3.13</v>
+      </c>
+      <c r="G193" s="2">
+        <v>1</v>
+      </c>
+      <c r="H193" s="2">
+        <v>1144.3019999999999</v>
+      </c>
+      <c r="I193" s="2">
+        <v>568.75099999999998</v>
+      </c>
+      <c r="J193" s="2">
+        <v>12.015000000000001</v>
+      </c>
+      <c r="K193" s="2">
+        <v>1.5209999999999999</v>
+      </c>
+      <c r="L193" s="2">
+        <v>4.9569999999999999</v>
+      </c>
+      <c r="M193" s="2">
+        <v>991.25400000000002</v>
+      </c>
+      <c r="N193" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="194" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A194" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B194" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C194" s="2">
+        <v>2021</v>
+      </c>
+      <c r="D194" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E194" s="2">
+        <v>5</v>
+      </c>
+      <c r="F194" s="2">
+        <v>3.45</v>
+      </c>
+      <c r="G194" s="2">
+        <v>1</v>
+      </c>
+      <c r="H194" s="2">
+        <v>1655.3050000000001</v>
+      </c>
+      <c r="I194" s="2">
+        <v>669.11699999999996</v>
+      </c>
+      <c r="J194" s="2">
+        <v>0.21099999999999999</v>
+      </c>
+      <c r="K194" s="2">
+        <v>8.4030000000000005</v>
+      </c>
+      <c r="L194" s="2">
+        <v>9.5939999999999994</v>
+      </c>
+      <c r="M194" s="2">
+        <v>541.27599999999995</v>
+      </c>
+      <c r="N194" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="195" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A195" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B195" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C195" s="2">
+        <v>2021</v>
+      </c>
+      <c r="D195" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E195" s="2">
+        <v>5</v>
+      </c>
+      <c r="F195" s="2">
+        <v>3.45</v>
+      </c>
+      <c r="G195" s="2">
+        <v>1</v>
+      </c>
+      <c r="H195" s="2">
+        <v>1556.3779999999999</v>
+      </c>
+      <c r="I195" s="2">
+        <v>672.05799999999999</v>
+      </c>
+      <c r="J195" s="2">
+        <v>1.03</v>
+      </c>
+      <c r="K195" s="2">
+        <v>7.9930000000000003</v>
+      </c>
+      <c r="L195" s="2">
+        <v>8.9339999999999993</v>
+      </c>
+      <c r="M195" s="2">
+        <v>564.23</v>
+      </c>
+      <c r="N195" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="196" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A196" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B196" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C196" s="2">
+        <v>2021</v>
+      </c>
+      <c r="D196" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E196" s="2">
+        <v>5</v>
+      </c>
+      <c r="F196" s="2">
+        <v>3.45</v>
+      </c>
+      <c r="G196" s="2">
+        <v>1</v>
+      </c>
+      <c r="H196" s="2">
+        <v>1627.319</v>
+      </c>
+      <c r="I196" s="2">
+        <v>662.79200000000003</v>
+      </c>
+      <c r="J196" s="2">
+        <v>0.871</v>
+      </c>
+      <c r="K196" s="2">
+        <v>8.2070000000000007</v>
+      </c>
+      <c r="L196" s="2">
+        <v>9.1270000000000007</v>
+      </c>
+      <c r="M196" s="2">
+        <v>551.32000000000005</v>
+      </c>
+      <c r="N196" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="197" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A197" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B197" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C197" s="2">
+        <v>2021</v>
+      </c>
+      <c r="D197" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E197" s="2">
+        <v>5</v>
+      </c>
+      <c r="F197" s="2">
+        <v>3.37</v>
+      </c>
+      <c r="G197" s="2">
+        <v>1</v>
+      </c>
+      <c r="H197" s="2">
+        <v>1702.444</v>
+      </c>
+      <c r="I197" s="2">
+        <v>901.048</v>
+      </c>
+      <c r="J197" s="2">
+        <v>8.15</v>
+      </c>
+      <c r="K197" s="2">
+        <v>0</v>
+      </c>
+      <c r="L197" s="2">
+        <v>9.6660000000000004</v>
+      </c>
+      <c r="M197" s="2">
+        <v>963.85500000000002</v>
+      </c>
+      <c r="N197" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="198" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A198" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B198" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C198" s="2">
+        <v>2021</v>
+      </c>
+      <c r="D198" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E198" s="2">
+        <v>5</v>
+      </c>
+      <c r="F198" s="2">
+        <v>3.37</v>
+      </c>
+      <c r="G198" s="2">
+        <v>1</v>
+      </c>
+      <c r="H198" s="2">
+        <v>1736.8920000000001</v>
+      </c>
+      <c r="I198" s="2">
+        <v>916.03700000000003</v>
+      </c>
+      <c r="J198" s="2">
+        <v>7.9530000000000003</v>
+      </c>
+      <c r="K198" s="2">
+        <v>1.034</v>
+      </c>
+      <c r="L198" s="2">
+        <v>10.266999999999999</v>
+      </c>
+      <c r="M198" s="2">
+        <v>972.03800000000001</v>
+      </c>
+      <c r="N198" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="199" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A199" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B199" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C199" s="2">
+        <v>2021</v>
+      </c>
+      <c r="D199" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E199" s="2">
+        <v>5</v>
+      </c>
+      <c r="F199" s="2">
+        <v>3.37</v>
+      </c>
+      <c r="G199" s="2">
+        <v>1</v>
+      </c>
+      <c r="H199" s="2">
+        <v>1722.0139999999999</v>
+      </c>
+      <c r="I199" s="2">
+        <v>902.24</v>
+      </c>
+      <c r="J199" s="2">
+        <v>8.0030000000000001</v>
+      </c>
+      <c r="K199" s="2">
+        <v>0.84499999999999997</v>
+      </c>
+      <c r="L199" s="2">
+        <v>9.9459999999999997</v>
+      </c>
+      <c r="M199" s="2">
+        <v>957.02300000000002</v>
+      </c>
+      <c r="N199" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="200" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A200" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B200" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C200" s="2">
+        <v>2021</v>
+      </c>
+      <c r="D200" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E200" s="2">
+        <v>5</v>
+      </c>
+      <c r="F200" s="2">
+        <v>3.72</v>
+      </c>
+      <c r="G200" s="2">
+        <v>1</v>
+      </c>
+      <c r="H200" s="2">
+        <v>1609.7940000000001</v>
+      </c>
+      <c r="I200" s="2">
+        <v>679.93499999999995</v>
+      </c>
+      <c r="J200" s="2">
+        <v>7.1989999999999998</v>
+      </c>
+      <c r="K200" s="2">
+        <v>0</v>
+      </c>
+      <c r="L200" s="2">
+        <v>4.758</v>
+      </c>
+      <c r="M200" s="2">
+        <v>416.00700000000001</v>
+      </c>
+      <c r="N200" s="2">
+        <v>4.0250000000000004</v>
+      </c>
+    </row>
+    <row r="201" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A201" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B201" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C201" s="2">
+        <v>2021</v>
+      </c>
+      <c r="D201" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E201" s="2">
+        <v>5</v>
+      </c>
+      <c r="F201" s="2">
+        <v>3.72</v>
+      </c>
+      <c r="G201" s="2">
+        <v>1</v>
+      </c>
+      <c r="H201" s="2">
+        <v>1597.366</v>
+      </c>
+      <c r="I201" s="2">
+        <v>662.36900000000003</v>
+      </c>
+      <c r="J201" s="2">
+        <v>8.0120000000000005</v>
+      </c>
+      <c r="K201" s="2">
+        <v>0.57799999999999996</v>
+      </c>
+      <c r="L201" s="2">
+        <v>5.2779999999999996</v>
+      </c>
+      <c r="M201" s="2">
+        <v>425.387</v>
+      </c>
+      <c r="N201" s="2">
+        <v>4.2350000000000003</v>
+      </c>
+    </row>
+    <row r="202" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A202" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B202" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C202" s="2">
+        <v>2021</v>
+      </c>
+      <c r="D202" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E202" s="2">
+        <v>5</v>
+      </c>
+      <c r="F202" s="2">
+        <v>3.72</v>
+      </c>
+      <c r="G202" s="2">
+        <v>1</v>
+      </c>
+      <c r="H202" s="2">
+        <v>1642.7750000000001</v>
+      </c>
+      <c r="I202" s="2">
+        <v>685.197</v>
+      </c>
+      <c r="J202" s="2">
+        <v>7.5670000000000002</v>
+      </c>
+      <c r="K202" s="2">
+        <v>0.245</v>
+      </c>
+      <c r="L202" s="2">
+        <v>4.8879999999999999</v>
+      </c>
+      <c r="M202" s="2">
+        <v>453.697</v>
+      </c>
+      <c r="N202" s="2">
+        <v>4.6210000000000004</v>
+      </c>
+    </row>
+    <row r="203" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A203" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B203" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C203" s="2">
+        <v>2021</v>
+      </c>
+      <c r="D203" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E203" s="2">
+        <v>5</v>
+      </c>
+      <c r="F203" s="2">
+        <v>3.35</v>
+      </c>
+      <c r="G203" s="2">
+        <v>1</v>
+      </c>
+      <c r="H203" s="2">
+        <v>1385.2380000000001</v>
+      </c>
+      <c r="I203" s="2">
+        <v>697.01900000000001</v>
+      </c>
+      <c r="J203" s="2">
+        <v>10.436</v>
+      </c>
+      <c r="K203" s="2">
+        <v>2.835</v>
+      </c>
+      <c r="L203" s="2">
+        <v>6.7830000000000004</v>
+      </c>
+      <c r="M203" s="2">
+        <v>460.21600000000001</v>
+      </c>
+      <c r="N203" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="204" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A204" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B204" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C204" s="2">
+        <v>2021</v>
+      </c>
+      <c r="D204" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E204" s="2">
+        <v>5</v>
+      </c>
+      <c r="F204" s="2">
+        <v>3.35</v>
+      </c>
+      <c r="G204" s="2">
+        <v>1</v>
+      </c>
+      <c r="H204" s="2">
+        <v>1297.367</v>
+      </c>
+      <c r="I204" s="2">
+        <v>678.25599999999997</v>
+      </c>
+      <c r="J204" s="2">
+        <v>11.102</v>
+      </c>
+      <c r="K204" s="2">
+        <v>2.9340000000000002</v>
+      </c>
+      <c r="L204" s="2">
+        <v>7.2450000000000001</v>
+      </c>
+      <c r="M204" s="2">
+        <v>445.37099999999998</v>
+      </c>
+      <c r="N204" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="205" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A205" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B205" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C205" s="2">
+        <v>2021</v>
+      </c>
+      <c r="D205" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E205" s="2">
+        <v>5</v>
+      </c>
+      <c r="F205" s="2">
+        <v>3.35</v>
+      </c>
+      <c r="G205" s="2">
+        <v>1</v>
+      </c>
+      <c r="H205" s="2">
+        <v>1355.3140000000001</v>
+      </c>
+      <c r="I205" s="2">
+        <v>702.33399999999995</v>
+      </c>
+      <c r="J205" s="2">
+        <v>10.278</v>
+      </c>
+      <c r="K205" s="2">
+        <v>2.5339999999999998</v>
+      </c>
+      <c r="L205" s="2">
+        <v>6.8860000000000001</v>
+      </c>
+      <c r="M205" s="2">
+        <v>451.23</v>
+      </c>
+      <c r="N205" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="206" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A206" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B206" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C206" s="2">
+        <v>2021</v>
+      </c>
+      <c r="D206" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E206" s="2">
+        <v>5</v>
+      </c>
+      <c r="F206" s="2">
+        <v>3.45</v>
+      </c>
+      <c r="G206" s="2">
+        <v>1</v>
+      </c>
+      <c r="H206" s="2">
+        <v>765.83699999999999</v>
+      </c>
+      <c r="I206" s="2">
+        <v>654.35900000000004</v>
+      </c>
+      <c r="J206" s="2">
+        <v>14.253</v>
+      </c>
+      <c r="K206" s="2">
+        <v>4.0030000000000001</v>
+      </c>
+      <c r="L206" s="2">
+        <v>14.731</v>
+      </c>
+      <c r="M206" s="2">
+        <v>594.65300000000002</v>
+      </c>
+      <c r="N206" s="2">
+        <v>8.8829999999999991</v>
+      </c>
+    </row>
+    <row r="207" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A207" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B207" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C207" s="2">
+        <v>2021</v>
+      </c>
+      <c r="D207" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E207" s="2">
+        <v>5</v>
+      </c>
+      <c r="F207" s="2">
+        <v>3.45</v>
+      </c>
+      <c r="G207" s="2">
+        <v>1</v>
+      </c>
+      <c r="H207" s="2">
+        <v>771.23500000000001</v>
+      </c>
+      <c r="I207" s="2">
+        <v>647.25400000000002</v>
+      </c>
+      <c r="J207" s="2">
+        <v>12.677</v>
+      </c>
+      <c r="K207" s="2">
+        <v>4.1230000000000002</v>
+      </c>
+      <c r="L207" s="2">
+        <v>12.314</v>
+      </c>
+      <c r="M207" s="2">
+        <v>612.02099999999996</v>
+      </c>
+      <c r="N207" s="2">
+        <v>9.157</v>
+      </c>
+    </row>
+    <row r="208" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A208" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B208" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C208" s="2">
+        <v>2021</v>
+      </c>
+      <c r="D208" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E208" s="2">
+        <v>5</v>
+      </c>
+      <c r="F208" s="2">
+        <v>3.45</v>
+      </c>
+      <c r="G208" s="2">
+        <v>1</v>
+      </c>
+      <c r="H208" s="2">
+        <v>736.24</v>
+      </c>
+      <c r="I208" s="2">
+        <v>662.34699999999998</v>
+      </c>
+      <c r="J208" s="2">
+        <v>13.348000000000001</v>
+      </c>
+      <c r="K208" s="2">
+        <v>3.9870000000000001</v>
+      </c>
+      <c r="L208" s="2">
+        <v>15.353999999999999</v>
+      </c>
+      <c r="M208" s="2">
+        <v>588.67499999999995</v>
+      </c>
+      <c r="N208" s="2">
+        <v>8.64</v>
+      </c>
+    </row>
+    <row r="209" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A209" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B209" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C209" s="2">
+        <v>2021</v>
+      </c>
+      <c r="D209" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E209" s="2">
+        <v>5</v>
+      </c>
+      <c r="F209" s="2">
+        <v>3.37</v>
+      </c>
+      <c r="G209" s="2">
+        <v>1</v>
+      </c>
+      <c r="H209" s="2">
+        <v>1715.223</v>
+      </c>
+      <c r="I209" s="2">
+        <v>433.74599999999998</v>
+      </c>
+      <c r="J209" s="2">
+        <v>11.051</v>
+      </c>
+      <c r="K209" s="2">
+        <v>6.0430000000000001</v>
+      </c>
+      <c r="L209" s="2">
+        <v>1.698</v>
+      </c>
+      <c r="M209" s="2">
+        <v>591.73199999999997</v>
+      </c>
+      <c r="N209" s="2">
+        <v>3.6739999999999999</v>
+      </c>
+    </row>
+    <row r="210" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A210" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B210" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C210" s="2">
+        <v>2021</v>
+      </c>
+      <c r="D210" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E210" s="2">
+        <v>5</v>
+      </c>
+      <c r="F210" s="2">
+        <v>3.37</v>
+      </c>
+      <c r="G210" s="2">
+        <v>1</v>
+      </c>
+      <c r="H210" s="2">
+        <v>1723.336</v>
+      </c>
+      <c r="I210" s="2">
+        <v>419.35399999999998</v>
+      </c>
+      <c r="J210" s="2">
+        <v>10.256</v>
+      </c>
+      <c r="K210" s="2">
+        <v>5.9420000000000002</v>
+      </c>
+      <c r="L210" s="2">
+        <v>1.2569999999999999</v>
+      </c>
+      <c r="M210" s="2">
+        <v>602.39700000000005</v>
+      </c>
+      <c r="N210" s="2">
+        <v>4.0209999999999999</v>
+      </c>
+    </row>
+    <row r="211" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A211" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B211" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C211" s="2">
+        <v>2021</v>
+      </c>
+      <c r="D211" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E211" s="2">
+        <v>5</v>
+      </c>
+      <c r="F211" s="2">
+        <v>3.37</v>
+      </c>
+      <c r="G211" s="2">
+        <v>1</v>
+      </c>
+      <c r="H211" s="2">
+        <v>1688.3779999999999</v>
+      </c>
+      <c r="I211" s="2">
+        <v>421.97500000000002</v>
+      </c>
+      <c r="J211" s="2">
+        <v>10.567</v>
+      </c>
+      <c r="K211" s="2">
+        <v>6.2370000000000001</v>
+      </c>
+      <c r="L211" s="2">
+        <v>1.554</v>
+      </c>
+      <c r="M211" s="2">
+        <v>617.32100000000003</v>
+      </c>
+      <c r="N211" s="2">
+        <v>3.4449999999999998</v>
+      </c>
+    </row>
+    <row r="212" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A212" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B212" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C212" s="2">
+        <v>2021</v>
+      </c>
+      <c r="D212" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E212" s="2">
+        <v>5</v>
+      </c>
+      <c r="F212" s="2">
+        <v>3.38</v>
+      </c>
+      <c r="G212" s="2">
+        <v>1</v>
+      </c>
+      <c r="H212" s="2">
+        <v>1135.943</v>
+      </c>
+      <c r="I212" s="2">
+        <v>425.49400000000003</v>
+      </c>
+      <c r="J212" s="2">
+        <v>16.100999999999999</v>
+      </c>
+      <c r="K212" s="2">
+        <v>7.8029999999999999</v>
+      </c>
+      <c r="L212" s="2">
+        <v>9.7940000000000005</v>
+      </c>
+      <c r="M212" s="2">
+        <v>255.69900000000001</v>
+      </c>
+      <c r="N212" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="213" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A213" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B213" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C213" s="2">
+        <v>2021</v>
+      </c>
+      <c r="D213" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E213" s="2">
+        <v>5</v>
+      </c>
+      <c r="F213" s="2">
+        <v>3.38</v>
+      </c>
+      <c r="G213" s="2">
+        <v>1</v>
+      </c>
+      <c r="H213" s="2">
+        <v>1093.759</v>
+      </c>
+      <c r="I213" s="2">
+        <v>419.62400000000002</v>
+      </c>
+      <c r="J213" s="2">
+        <v>15.349</v>
+      </c>
+      <c r="K213" s="2">
+        <v>8.1129999999999995</v>
+      </c>
+      <c r="L213" s="2">
+        <v>8.5410000000000004</v>
+      </c>
+      <c r="M213" s="2">
+        <v>262.35700000000003</v>
+      </c>
+      <c r="N213" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="214" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A214" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B214" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C214" s="2">
+        <v>2021</v>
+      </c>
+      <c r="D214" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E214" s="2">
+        <v>5</v>
+      </c>
+      <c r="F214" s="2">
+        <v>3.38</v>
+      </c>
+      <c r="G214" s="2">
+        <v>1</v>
+      </c>
+      <c r="H214" s="2">
+        <v>1103.347</v>
+      </c>
+      <c r="I214" s="2">
+        <v>422.36700000000002</v>
+      </c>
+      <c r="J214" s="2">
+        <v>16.07</v>
+      </c>
+      <c r="K214" s="2">
+        <v>7.9989999999999997</v>
+      </c>
+      <c r="L214" s="2">
+        <v>9.5410000000000004</v>
+      </c>
+      <c r="M214" s="2">
+        <v>257.32400000000001</v>
+      </c>
+      <c r="N214" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="215" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A215" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B215" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C215" s="2">
+        <v>2021</v>
+      </c>
+      <c r="D215" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E215" s="2">
+        <v>5</v>
+      </c>
+      <c r="F215" s="2">
+        <v>3.43</v>
+      </c>
+      <c r="G215" s="2">
+        <v>1</v>
+      </c>
+      <c r="H215" s="2">
+        <v>1285.7339999999999</v>
+      </c>
+      <c r="I215" s="2">
+        <v>518.85500000000002</v>
+      </c>
+      <c r="J215" s="2">
+        <v>11.818</v>
+      </c>
+      <c r="K215" s="2">
+        <v>10.47</v>
+      </c>
+      <c r="L215" s="2">
+        <v>1.571</v>
+      </c>
+      <c r="M215" s="2">
+        <v>160.56800000000001</v>
+      </c>
+      <c r="N215" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="216" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A216" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B216" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C216" s="2">
+        <v>2021</v>
+      </c>
+      <c r="D216" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E216" s="2">
+        <v>5</v>
+      </c>
+      <c r="F216" s="2">
+        <v>3.43</v>
+      </c>
+      <c r="G216" s="2">
+        <v>1</v>
+      </c>
+      <c r="H216" s="2">
+        <v>1301.0029999999999</v>
+      </c>
+      <c r="I216" s="2">
+        <v>527.96199999999999</v>
+      </c>
+      <c r="J216" s="2">
+        <v>11.237</v>
+      </c>
+      <c r="K216" s="2">
+        <v>10.337</v>
+      </c>
+      <c r="L216" s="2">
+        <v>1.637</v>
+      </c>
+      <c r="M216" s="2">
+        <v>162.77799999999999</v>
+      </c>
+      <c r="N216" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="217" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A217" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B217" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C217" s="2">
+        <v>2021</v>
+      </c>
+      <c r="D217" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E217" s="2">
+        <v>5</v>
+      </c>
+      <c r="F217" s="2">
+        <v>3.43</v>
+      </c>
+      <c r="G217" s="2">
+        <v>1</v>
+      </c>
+      <c r="H217" s="2">
+        <v>1292.3779999999999</v>
+      </c>
+      <c r="I217" s="2">
+        <v>517.00300000000004</v>
+      </c>
+      <c r="J217" s="2">
+        <v>10.994</v>
+      </c>
+      <c r="K217" s="2">
+        <v>9.7949999999999999</v>
+      </c>
+      <c r="L217" s="2">
+        <v>1.5609999999999999</v>
+      </c>
+      <c r="M217" s="2">
+        <v>163.54499999999999</v>
+      </c>
+      <c r="N217" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="218" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A218" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B218" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C218" s="2">
+        <v>2021</v>
+      </c>
+      <c r="D218" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E218" s="2">
+        <v>5</v>
+      </c>
+      <c r="F218" s="2">
+        <v>3.6</v>
+      </c>
+      <c r="G218" s="2">
+        <v>1</v>
+      </c>
+      <c r="H218" s="2">
+        <v>1305.797</v>
+      </c>
+      <c r="I218" s="2">
+        <v>609.77700000000004</v>
+      </c>
+      <c r="J218" s="2">
+        <v>14.105</v>
+      </c>
+      <c r="K218" s="2">
+        <v>2.3519999999999999</v>
+      </c>
+      <c r="L218" s="2">
+        <v>5.2</v>
+      </c>
+      <c r="M218" s="2">
+        <v>166.821</v>
+      </c>
+      <c r="N218" s="2">
+        <v>3.8140000000000001</v>
+      </c>
+    </row>
+    <row r="219" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A219" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B219" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C219" s="2">
+        <v>2021</v>
+      </c>
+      <c r="D219" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E219" s="2">
+        <v>5</v>
+      </c>
+      <c r="F219" s="2">
+        <v>3.6</v>
+      </c>
+      <c r="G219" s="2">
+        <v>1</v>
+      </c>
+      <c r="H219" s="2">
+        <v>1331.0239999999999</v>
+      </c>
+      <c r="I219" s="2">
+        <v>617.26400000000001</v>
+      </c>
+      <c r="J219" s="2">
+        <v>15.034000000000001</v>
+      </c>
+      <c r="K219" s="2">
+        <v>1.8340000000000001</v>
+      </c>
+      <c r="L219" s="2">
+        <v>4.9249999999999998</v>
+      </c>
+      <c r="M219" s="2">
+        <v>173.64699999999999</v>
+      </c>
+      <c r="N219" s="2">
+        <v>4.1230000000000002</v>
+      </c>
+    </row>
+    <row r="220" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A220" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B220" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C220" s="2">
+        <v>2021</v>
+      </c>
+      <c r="D220" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E220" s="2">
+        <v>5</v>
+      </c>
+      <c r="F220" s="2">
+        <v>3.6</v>
+      </c>
+      <c r="G220" s="2">
+        <v>1</v>
+      </c>
+      <c r="H220" s="2">
+        <v>1299.009</v>
+      </c>
+      <c r="I220" s="2">
+        <v>627.25699999999995</v>
+      </c>
+      <c r="J220" s="2">
+        <v>14.53</v>
+      </c>
+      <c r="K220" s="2">
+        <v>2.5369999999999999</v>
+      </c>
+      <c r="L220" s="2">
+        <v>5.1239999999999997</v>
+      </c>
+      <c r="M220" s="2">
+        <v>177.31399999999999</v>
+      </c>
+      <c r="N220" s="2">
+        <v>3.9990000000000001</v>
+      </c>
+    </row>
+    <row r="221" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A221" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B221" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C221" s="3">
+        <v>2021</v>
+      </c>
+      <c r="D221" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E221" s="3">
+        <v>5</v>
+      </c>
+      <c r="F221" s="4">
+        <v>3.63</v>
+      </c>
+      <c r="G221" s="3">
+        <v>1</v>
+      </c>
+      <c r="H221" s="3">
+        <v>1543.7660000000001</v>
+      </c>
+      <c r="I221" s="3">
+        <v>702.78300000000002</v>
+      </c>
+      <c r="J221" s="3">
+        <v>11.55</v>
+      </c>
+      <c r="K221" s="3">
+        <v>4.4169999999999998</v>
+      </c>
+      <c r="L221" s="3">
+        <v>0</v>
+      </c>
+      <c r="M221" s="3">
+        <v>36.098999999999997</v>
+      </c>
+      <c r="N221" s="3">
+        <v>2.8719999999999999</v>
+      </c>
+    </row>
+    <row r="222" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A222" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B222" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C222" s="3">
+        <v>2021</v>
+      </c>
+      <c r="D222" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E222" s="3">
+        <v>5</v>
+      </c>
+      <c r="F222" s="4">
+        <v>3.63</v>
+      </c>
+      <c r="G222" s="3">
+        <v>1</v>
+      </c>
+      <c r="H222" s="3">
+        <v>1552.365</v>
+      </c>
+      <c r="I222" s="3">
+        <v>712.23500000000001</v>
+      </c>
+      <c r="J222" s="3">
+        <v>10.95</v>
+      </c>
+      <c r="K222" s="3">
+        <v>5.1260000000000003</v>
+      </c>
+      <c r="L222" s="3">
+        <v>0</v>
+      </c>
+      <c r="M222" s="3">
+        <v>38.267000000000003</v>
+      </c>
+      <c r="N222" s="3">
+        <v>3.218</v>
+      </c>
+    </row>
+    <row r="223" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A223" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B223" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C223" s="3">
+        <v>2021</v>
+      </c>
+      <c r="D223" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E223" s="3">
+        <v>5</v>
+      </c>
+      <c r="F223" s="4">
+        <v>3.63</v>
+      </c>
+      <c r="G223" s="3">
+        <v>1</v>
+      </c>
+      <c r="H223" s="3">
+        <v>1623.2539999999999</v>
+      </c>
+      <c r="I223" s="3">
+        <v>699.15800000000002</v>
+      </c>
+      <c r="J223" s="3">
+        <v>10.266999999999999</v>
+      </c>
+      <c r="K223" s="3">
+        <v>4.5679999999999996</v>
+      </c>
+      <c r="L223" s="3">
+        <v>0</v>
+      </c>
+      <c r="M223" s="3">
+        <v>41.222000000000001</v>
+      </c>
+      <c r="N223" s="3">
+        <v>2.5859999999999999</v>
+      </c>
+    </row>
+    <row r="224" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A224" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B224" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C224" s="3">
+        <v>2021</v>
+      </c>
+      <c r="D224" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E224" s="3">
+        <v>5</v>
+      </c>
+      <c r="F224" s="4">
+        <v>3.6500000000000004</v>
+      </c>
+      <c r="G224" s="3">
+        <v>1</v>
+      </c>
+      <c r="H224" s="3">
+        <v>1039.6089999999999</v>
+      </c>
+      <c r="I224" s="3">
+        <v>723.471</v>
+      </c>
+      <c r="J224" s="3">
+        <v>12.14</v>
+      </c>
+      <c r="K224" s="3">
+        <v>8.5039999999999996</v>
+      </c>
+      <c r="L224" s="3">
+        <v>1.1240000000000001</v>
+      </c>
+      <c r="M224" s="3">
+        <v>38.695</v>
+      </c>
+      <c r="N224" s="3">
+        <v>3.0009999999999999</v>
+      </c>
+    </row>
+    <row r="225" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A225" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B225" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C225" s="3">
+        <v>2021</v>
+      </c>
+      <c r="D225" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E225" s="3">
+        <v>5</v>
+      </c>
+      <c r="F225" s="4">
+        <v>3.6500000000000004</v>
+      </c>
+      <c r="G225" s="3">
+        <v>1</v>
+      </c>
+      <c r="H225" s="3">
+        <v>1059.8420000000001</v>
+      </c>
+      <c r="I225" s="3">
+        <v>722.36699999999996</v>
+      </c>
+      <c r="J225" s="3">
+        <v>11.981</v>
+      </c>
+      <c r="K225" s="3">
+        <v>9.0120000000000005</v>
+      </c>
+      <c r="L225" s="3">
+        <v>1.222</v>
+      </c>
+      <c r="M225" s="3">
+        <v>41.267000000000003</v>
+      </c>
+      <c r="N225" s="3">
+        <v>2.9870000000000001</v>
+      </c>
+    </row>
+    <row r="226" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A226" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B226" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C226" s="3">
+        <v>2021</v>
+      </c>
+      <c r="D226" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E226" s="3">
+        <v>5</v>
+      </c>
+      <c r="F226" s="4">
+        <v>3.6500000000000004</v>
+      </c>
+      <c r="G226" s="3">
+        <v>1</v>
+      </c>
+      <c r="H226" s="3">
+        <v>1022.76</v>
+      </c>
+      <c r="I226" s="3">
+        <v>716.25699999999995</v>
+      </c>
+      <c r="J226" s="3">
+        <v>11.954000000000001</v>
+      </c>
+      <c r="K226" s="3">
+        <v>7.9649999999999999</v>
+      </c>
+      <c r="L226" s="3">
+        <v>1.0669999999999999</v>
+      </c>
+      <c r="M226" s="3">
+        <v>35.677999999999997</v>
+      </c>
+      <c r="N226" s="3">
+        <v>2.8879999999999999</v>
+      </c>
+    </row>
+    <row r="227" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A227" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B227" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C227" s="3">
+        <v>2021</v>
+      </c>
+      <c r="D227" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E227" s="3">
+        <v>5</v>
+      </c>
+      <c r="F227" s="4">
+        <v>3.63</v>
+      </c>
+      <c r="G227" s="3">
+        <v>1</v>
+      </c>
+      <c r="H227" s="3">
+        <v>927.36800000000005</v>
+      </c>
+      <c r="I227" s="3">
+        <v>572.12199999999996</v>
+      </c>
+      <c r="J227" s="3">
+        <v>2.4279999999999999</v>
+      </c>
+      <c r="K227" s="3">
+        <v>4.9530000000000003</v>
+      </c>
+      <c r="L227" s="3">
+        <v>0</v>
+      </c>
+      <c r="M227" s="3">
+        <v>115.839</v>
+      </c>
+      <c r="N227" s="3">
+        <v>2.6309999999999998</v>
+      </c>
+    </row>
+    <row r="228" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A228" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B228" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C228" s="3">
+        <v>2021</v>
+      </c>
+      <c r="D228" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E228" s="3">
+        <v>5</v>
+      </c>
+      <c r="F228" s="4">
+        <v>3.63</v>
+      </c>
+      <c r="G228" s="3">
+        <v>1</v>
+      </c>
+      <c r="H228" s="3">
+        <v>956.35699999999997</v>
+      </c>
+      <c r="I228" s="3">
+        <v>601.32399999999996</v>
+      </c>
+      <c r="J228" s="3">
+        <v>1.9650000000000001</v>
+      </c>
+      <c r="K228" s="3">
+        <v>5.0229999999999997</v>
+      </c>
+      <c r="L228" s="3">
+        <v>0</v>
+      </c>
+      <c r="M228" s="3">
+        <v>119.23399999999999</v>
+      </c>
+      <c r="N228" s="3">
+        <v>2.8639999999999999</v>
+      </c>
+    </row>
+    <row r="229" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A229" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B229" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C229" s="3">
+        <v>2021</v>
+      </c>
+      <c r="D229" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E229" s="3">
+        <v>5</v>
+      </c>
+      <c r="F229" s="4">
+        <v>3.63</v>
+      </c>
+      <c r="G229" s="3">
+        <v>1</v>
+      </c>
+      <c r="H229" s="3">
+        <v>933.55799999999999</v>
+      </c>
+      <c r="I229" s="3">
+        <v>588.36900000000003</v>
+      </c>
+      <c r="J229" s="3">
+        <v>2.548</v>
+      </c>
+      <c r="K229" s="3">
+        <v>4.9969999999999999</v>
+      </c>
+      <c r="L229" s="3">
+        <v>0</v>
+      </c>
+      <c r="M229" s="3">
+        <v>122.378</v>
+      </c>
+      <c r="N229" s="3">
+        <v>2.5590000000000002</v>
+      </c>
+    </row>
+    <row r="230" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A230" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B230" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C230" s="3">
+        <v>2021</v>
+      </c>
+      <c r="D230" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E230" s="3">
+        <v>5</v>
+      </c>
+      <c r="F230" s="4">
+        <v>3.33</v>
+      </c>
+      <c r="G230" s="3">
+        <v>1</v>
+      </c>
+      <c r="H230" s="3">
+        <v>863.596</v>
+      </c>
+      <c r="I230" s="3">
+        <v>577.82600000000002</v>
+      </c>
+      <c r="J230" s="3">
+        <v>8.6479999999999997</v>
+      </c>
+      <c r="K230" s="3">
+        <v>5.4489999999999998</v>
+      </c>
+      <c r="L230" s="3">
+        <v>1.153</v>
+      </c>
+      <c r="M230" s="3">
+        <v>130.108</v>
+      </c>
+      <c r="N230" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="231" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A231" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B231" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C231" s="3">
+        <v>2021</v>
+      </c>
+      <c r="D231" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E231" s="3">
+        <v>5</v>
+      </c>
+      <c r="F231" s="4">
+        <v>3.33</v>
+      </c>
+      <c r="G231" s="3">
+        <v>1</v>
+      </c>
+      <c r="H231" s="3">
+        <v>912.32500000000005</v>
+      </c>
+      <c r="I231" s="3">
+        <v>587.36400000000003</v>
+      </c>
+      <c r="J231" s="3">
+        <v>7.992</v>
+      </c>
+      <c r="K231" s="3">
+        <v>5.8620000000000001</v>
+      </c>
+      <c r="L231" s="3">
+        <v>1.0680000000000001</v>
+      </c>
+      <c r="M231" s="3">
+        <v>134.22800000000001</v>
+      </c>
+      <c r="N231" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="232" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A232" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B232" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C232" s="3">
+        <v>2021</v>
+      </c>
+      <c r="D232" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E232" s="3">
+        <v>5</v>
+      </c>
+      <c r="F232" s="4">
+        <v>3.33</v>
+      </c>
+      <c r="G232" s="3">
+        <v>1</v>
+      </c>
+      <c r="H232" s="3">
+        <v>883.34500000000003</v>
+      </c>
+      <c r="I232" s="3">
+        <v>600.28700000000003</v>
+      </c>
+      <c r="J232" s="3">
+        <v>8.3350000000000009</v>
+      </c>
+      <c r="K232" s="3">
+        <v>5.6239999999999997</v>
+      </c>
+      <c r="L232" s="3">
+        <v>1.1679999999999999</v>
+      </c>
+      <c r="M232" s="3">
+        <v>135.297</v>
+      </c>
+      <c r="N232" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="233" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A233" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B233" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C233" s="3">
+        <v>2021</v>
+      </c>
+      <c r="D233" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E233" s="3">
+        <v>5</v>
+      </c>
+      <c r="F233" s="4">
+        <v>3.63</v>
+      </c>
+      <c r="G233" s="3">
+        <v>1</v>
+      </c>
+      <c r="H233" s="3">
+        <v>837.71600000000001</v>
+      </c>
+      <c r="I233" s="3">
+        <v>582.26099999999997</v>
+      </c>
+      <c r="J233" s="3">
+        <v>8.3629999999999995</v>
+      </c>
+      <c r="K233" s="3">
+        <v>4.7160000000000002</v>
+      </c>
+      <c r="L233" s="3">
+        <v>0</v>
+      </c>
+      <c r="M233" s="3">
+        <v>194.13300000000001</v>
+      </c>
+      <c r="N233" s="3">
+        <v>3.1720000000000002</v>
+      </c>
+    </row>
+    <row r="234" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A234" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B234" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C234" s="3">
+        <v>2021</v>
+      </c>
+      <c r="D234" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E234" s="3">
+        <v>5</v>
+      </c>
+      <c r="F234" s="4">
+        <v>3.63</v>
+      </c>
+      <c r="G234" s="3">
+        <v>1</v>
+      </c>
+      <c r="H234" s="3">
+        <v>845.23500000000001</v>
+      </c>
+      <c r="I234" s="3">
+        <v>592.36500000000001</v>
+      </c>
+      <c r="J234" s="3">
+        <v>8.6620000000000008</v>
+      </c>
+      <c r="K234" s="3">
+        <v>4.8230000000000004</v>
+      </c>
+      <c r="L234" s="3">
+        <v>0</v>
+      </c>
+      <c r="M234" s="3">
+        <v>199.56200000000001</v>
+      </c>
+      <c r="N234" s="3">
+        <v>3.2250000000000001</v>
+      </c>
+    </row>
+    <row r="235" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A235" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B235" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C235" s="3">
+        <v>2021</v>
+      </c>
+      <c r="D235" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E235" s="3">
+        <v>5</v>
+      </c>
+      <c r="F235" s="4">
+        <v>3.63</v>
+      </c>
+      <c r="G235" s="3">
+        <v>1</v>
+      </c>
+      <c r="H235" s="3">
+        <v>840.25599999999997</v>
+      </c>
+      <c r="I235" s="3">
+        <v>576.34500000000003</v>
+      </c>
+      <c r="J235" s="3">
+        <v>8.4559999999999995</v>
+      </c>
+      <c r="K235" s="3">
+        <v>5.0019999999999998</v>
+      </c>
+      <c r="L235" s="3">
+        <v>0</v>
+      </c>
+      <c r="M235" s="3">
+        <v>201.25700000000001</v>
+      </c>
+      <c r="N235" s="3">
+        <v>3.125</v>
+      </c>
+    </row>
+    <row r="236" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A236" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B236" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C236" s="3">
+        <v>2021</v>
+      </c>
+      <c r="D236" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E236" s="3">
+        <v>5</v>
+      </c>
+      <c r="F236" s="4">
+        <v>3.3333333333333335</v>
+      </c>
+      <c r="G236" s="3">
+        <v>1</v>
+      </c>
+      <c r="H236" s="3">
+        <v>1094.329</v>
+      </c>
+      <c r="I236" s="3">
+        <v>616.87</v>
+      </c>
+      <c r="J236" s="3">
+        <v>6.9459999999999997</v>
+      </c>
+      <c r="K236" s="3">
+        <v>5.69</v>
+      </c>
+      <c r="L236" s="3">
+        <v>13.38</v>
+      </c>
+      <c r="M236" s="3">
+        <v>68.741</v>
+      </c>
+      <c r="N236" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="237" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A237" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B237" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C237" s="3">
+        <v>2021</v>
+      </c>
+      <c r="D237" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E237" s="3">
+        <v>5</v>
+      </c>
+      <c r="F237" s="4">
+        <v>3.3333333333333335</v>
+      </c>
+      <c r="G237" s="3">
+        <v>1</v>
+      </c>
+      <c r="H237" s="3">
+        <v>1101.0229999999999</v>
+      </c>
+      <c r="I237" s="3">
+        <v>623.35400000000004</v>
+      </c>
+      <c r="J237" s="3">
+        <v>7.0019999999999998</v>
+      </c>
+      <c r="K237" s="3">
+        <v>6.02</v>
+      </c>
+      <c r="L237" s="3">
+        <v>13.025</v>
+      </c>
+      <c r="M237" s="3">
+        <v>72.355999999999995</v>
+      </c>
+      <c r="N237" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="238" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A238" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B238" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C238" s="3">
+        <v>2021</v>
+      </c>
+      <c r="D238" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E238" s="3">
+        <v>5</v>
+      </c>
+      <c r="F238" s="4">
+        <v>3.3333333333333335</v>
+      </c>
+      <c r="G238" s="3">
+        <v>1</v>
+      </c>
+      <c r="H238" s="3">
+        <v>1108.2460000000001</v>
+      </c>
+      <c r="I238" s="3">
+        <v>620.24</v>
+      </c>
+      <c r="J238" s="3">
+        <v>7.0140000000000002</v>
+      </c>
+      <c r="K238" s="3">
+        <v>5.8120000000000003</v>
+      </c>
+      <c r="L238" s="3">
+        <v>12.952</v>
+      </c>
+      <c r="M238" s="3">
+        <v>77.546999999999997</v>
+      </c>
+      <c r="N238" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="239" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A239" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B239" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C239" s="3">
+        <v>2021</v>
+      </c>
+      <c r="D239" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E239" s="3">
+        <v>5</v>
+      </c>
+      <c r="F239" s="4">
+        <v>2.9</v>
+      </c>
+      <c r="G239" s="3">
+        <v>1</v>
+      </c>
+      <c r="H239" s="3">
+        <v>1733.1220000000001</v>
+      </c>
+      <c r="I239" s="3">
+        <v>429.40600000000001</v>
+      </c>
+      <c r="J239" s="3">
+        <v>14.54</v>
+      </c>
+      <c r="K239" s="3">
+        <v>5.3719999999999999</v>
+      </c>
+      <c r="L239" s="3">
+        <v>0</v>
+      </c>
+      <c r="M239" s="3">
+        <v>24.146000000000001</v>
+      </c>
+      <c r="N239" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="240" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A240" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B240" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C240" s="3">
+        <v>2021</v>
+      </c>
+      <c r="D240" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E240" s="3">
+        <v>5</v>
+      </c>
+      <c r="F240" s="4">
+        <v>2.9</v>
+      </c>
+      <c r="G240" s="3">
+        <v>1</v>
+      </c>
+      <c r="H240" s="3">
+        <v>1692.3489999999999</v>
+      </c>
+      <c r="I240" s="3">
+        <v>424.92399999999998</v>
+      </c>
+      <c r="J240" s="3">
+        <v>15.327</v>
+      </c>
+      <c r="K240" s="3">
+        <v>5.1150000000000002</v>
+      </c>
+      <c r="L240" s="3">
+        <v>0</v>
+      </c>
+      <c r="M240" s="3">
+        <v>24.687000000000001</v>
+      </c>
+      <c r="N240" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="241" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A241" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B241" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C241" s="3">
+        <v>2021</v>
+      </c>
+      <c r="D241" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E241" s="3">
+        <v>5</v>
+      </c>
+      <c r="F241" s="4">
+        <v>2.9</v>
+      </c>
+      <c r="G241" s="3">
+        <v>1</v>
+      </c>
+      <c r="H241" s="3">
+        <v>1712.24</v>
+      </c>
+      <c r="I241" s="3">
+        <v>433.58800000000002</v>
+      </c>
+      <c r="J241" s="3">
+        <v>14.861000000000001</v>
+      </c>
+      <c r="K241" s="3">
+        <v>4.9870000000000001</v>
+      </c>
+      <c r="L241" s="3">
+        <v>0</v>
+      </c>
+      <c r="M241" s="3">
+        <v>25.126999999999999</v>
+      </c>
+      <c r="N241" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="242" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A242" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B242" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C242" s="3">
+        <v>2021</v>
+      </c>
+      <c r="D242" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E242" s="3">
+        <v>5</v>
+      </c>
+      <c r="F242" s="4">
+        <v>2.6833333333333336</v>
+      </c>
+      <c r="G242" s="3">
+        <v>1</v>
+      </c>
+      <c r="H242" s="3">
+        <v>1299.923</v>
+      </c>
+      <c r="I242" s="3">
+        <v>228.42</v>
+      </c>
+      <c r="J242" s="3">
+        <v>1.601</v>
+      </c>
+      <c r="K242" s="3">
+        <v>0</v>
+      </c>
+      <c r="L242" s="3">
+        <v>0</v>
+      </c>
+      <c r="M242" s="3">
+        <v>21.818000000000001</v>
+      </c>
+      <c r="N242" s="3">
+        <v>2.9060000000000001</v>
+      </c>
+    </row>
+    <row r="243" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A243" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B243" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C243" s="3">
+        <v>2021</v>
+      </c>
+      <c r="D243" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E243" s="3">
+        <v>5</v>
+      </c>
+      <c r="F243" s="4">
+        <v>2.6833333333333336</v>
+      </c>
+      <c r="G243" s="3">
+        <v>1</v>
+      </c>
+      <c r="H243" s="3">
+        <v>1256.3779999999999</v>
+      </c>
+      <c r="I243" s="3">
+        <v>256.89</v>
+      </c>
+      <c r="J243" s="3">
+        <v>1.992</v>
+      </c>
+      <c r="K243" s="3">
+        <v>0</v>
+      </c>
+      <c r="L243" s="3">
+        <v>0</v>
+      </c>
+      <c r="M243" s="3">
+        <v>25.631</v>
+      </c>
+      <c r="N243" s="3">
+        <v>2.8889999999999998</v>
+      </c>
+    </row>
+    <row r="244" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A244" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B244" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C244" s="3">
+        <v>2021</v>
+      </c>
+      <c r="D244" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E244" s="3">
+        <v>5</v>
+      </c>
+      <c r="F244" s="4">
+        <v>2.6833333333333336</v>
+      </c>
+      <c r="G244" s="3">
+        <v>1</v>
+      </c>
+      <c r="H244" s="3">
+        <v>1302.357</v>
+      </c>
+      <c r="I244" s="3">
+        <v>302.59699999999998</v>
+      </c>
+      <c r="J244" s="3">
+        <v>2.0099999999999998</v>
+      </c>
+      <c r="K244" s="3">
+        <v>0</v>
+      </c>
+      <c r="L244" s="3">
+        <v>0</v>
+      </c>
+      <c r="M244" s="3">
+        <v>24.221</v>
+      </c>
+      <c r="N244" s="3">
+        <v>3.012</v>
+      </c>
+    </row>
+    <row r="245" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A245" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B245" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C245" s="3">
+        <v>2021</v>
+      </c>
+      <c r="D245" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E245" s="3">
+        <v>5</v>
+      </c>
+      <c r="F245" s="4">
+        <v>3</v>
+      </c>
+      <c r="G245" s="3">
+        <v>1</v>
+      </c>
+      <c r="H245" s="3">
+        <v>1274.2719999999999</v>
+      </c>
+      <c r="I245" s="3">
+        <v>329.49700000000001</v>
+      </c>
+      <c r="J245" s="3">
+        <v>6.5709999999999997</v>
+      </c>
+      <c r="K245" s="3">
+        <v>6.5590000000000002</v>
+      </c>
+      <c r="L245" s="3">
+        <v>8.3510000000000009</v>
+      </c>
+      <c r="M245" s="3">
+        <v>37.088999999999999</v>
+      </c>
+      <c r="N245" s="3">
+        <v>2.875</v>
+      </c>
+    </row>
+    <row r="246" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A246" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B246" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C246" s="3">
+        <v>2021</v>
+      </c>
+      <c r="D246" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E246" s="3">
+        <v>5</v>
+      </c>
+      <c r="F246" s="4">
+        <v>3</v>
+      </c>
+      <c r="G246" s="3">
+        <v>1</v>
+      </c>
+      <c r="H246" s="3">
+        <v>1255.125</v>
+      </c>
+      <c r="I246" s="3">
+        <v>335.46600000000001</v>
+      </c>
+      <c r="J246" s="3">
+        <v>7.024</v>
+      </c>
+      <c r="K246" s="3">
+        <v>6.5970000000000004</v>
+      </c>
+      <c r="L246" s="3">
+        <v>8.0229999999999997</v>
+      </c>
+      <c r="M246" s="3">
+        <v>39.125</v>
+      </c>
+      <c r="N246" s="3">
+        <v>3.012</v>
+      </c>
+    </row>
+    <row r="247" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A247" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B247" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C247" s="3">
+        <v>2021</v>
+      </c>
+      <c r="D247" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E247" s="3">
+        <v>5</v>
+      </c>
+      <c r="F247" s="4">
+        <v>3</v>
+      </c>
+      <c r="G247" s="3">
+        <v>1</v>
+      </c>
+      <c r="H247" s="3">
+        <v>1263.278</v>
+      </c>
+      <c r="I247" s="3">
+        <v>331.28699999999998</v>
+      </c>
+      <c r="J247" s="3">
+        <v>6.6980000000000004</v>
+      </c>
+      <c r="K247" s="3">
+        <v>6.6230000000000002</v>
+      </c>
+      <c r="L247" s="3">
+        <v>8.4209999999999994</v>
+      </c>
+      <c r="M247" s="3">
+        <v>40.225999999999999</v>
+      </c>
+      <c r="N247" s="3">
+        <v>2.9119999999999999</v>
+      </c>
+    </row>
+    <row r="248" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A248" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B248" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C248" s="3">
+        <v>2021</v>
+      </c>
+      <c r="D248" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E248" s="3">
+        <v>5</v>
+      </c>
+      <c r="F248" s="4">
+        <v>2.9166666666666665</v>
+      </c>
+      <c r="G248" s="3">
+        <v>1</v>
+      </c>
+      <c r="H248" s="3">
+        <v>1401.2159999999999</v>
+      </c>
+      <c r="I248" s="3">
+        <v>246.34700000000001</v>
+      </c>
+      <c r="J248" s="3">
+        <v>0</v>
+      </c>
+      <c r="K248" s="3">
+        <v>0</v>
+      </c>
+      <c r="L248" s="3">
+        <v>5.5979999999999999</v>
+      </c>
+      <c r="M248" s="3">
+        <v>38.844999999999999</v>
+      </c>
+      <c r="N248" s="3">
+        <v>3.609</v>
+      </c>
+    </row>
+    <row r="249" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A249" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B249" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C249" s="3">
+        <v>2021</v>
+      </c>
+      <c r="D249" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E249" s="3">
+        <v>5</v>
+      </c>
+      <c r="F249" s="4">
+        <v>2.9166666666666665</v>
+      </c>
+      <c r="G249" s="3">
+        <v>1</v>
+      </c>
+      <c r="H249" s="3">
+        <v>1375.3520000000001</v>
+      </c>
+      <c r="I249" s="3">
+        <v>251.23599999999999</v>
+      </c>
+      <c r="J249" s="3">
+        <v>0</v>
+      </c>
+      <c r="K249" s="3">
+        <v>0</v>
+      </c>
+      <c r="L249" s="3">
+        <v>6.0119999999999996</v>
+      </c>
+      <c r="M249" s="3">
+        <v>42.033000000000001</v>
+      </c>
+      <c r="N249" s="3">
+        <v>3.3450000000000002</v>
+      </c>
+    </row>
+    <row r="250" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A250" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B250" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C250" s="3">
+        <v>2021</v>
+      </c>
+      <c r="D250" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E250" s="3">
+        <v>5</v>
+      </c>
+      <c r="F250" s="4">
+        <v>2.9166666666666665</v>
+      </c>
+      <c r="G250" s="3">
+        <v>1</v>
+      </c>
+      <c r="H250" s="3">
+        <v>1364.258</v>
+      </c>
+      <c r="I250" s="3">
+        <v>239.15600000000001</v>
+      </c>
+      <c r="J250" s="3">
+        <v>0</v>
+      </c>
+      <c r="K250" s="3">
+        <v>0</v>
+      </c>
+      <c r="L250" s="3">
+        <v>5.92</v>
+      </c>
+      <c r="M250" s="3">
+        <v>40.125999999999998</v>
+      </c>
+      <c r="N250" s="3">
+        <v>3.714</v>
+      </c>
+    </row>
+    <row r="251" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A251" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B251" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C251" s="3">
+        <v>2021</v>
+      </c>
+      <c r="D251" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E251" s="3">
+        <v>5</v>
+      </c>
+      <c r="F251" s="4">
+        <v>2.6833333333333331</v>
+      </c>
+      <c r="G251" s="3">
+        <v>1</v>
+      </c>
+      <c r="H251" s="3">
+        <v>931.23699999999997</v>
+      </c>
+      <c r="I251" s="3">
+        <v>315.71499999999997</v>
+      </c>
+      <c r="J251" s="3">
+        <v>28.831</v>
+      </c>
+      <c r="K251" s="3">
+        <v>0</v>
+      </c>
+      <c r="L251" s="3">
+        <v>28.541</v>
+      </c>
+      <c r="M251" s="3">
+        <v>324.96600000000001</v>
+      </c>
+      <c r="N251" s="3">
+        <v>2.72</v>
+      </c>
+    </row>
+    <row r="252" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A252" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B252" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C252" s="3">
+        <v>2021</v>
+      </c>
+      <c r="D252" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E252" s="3">
+        <v>5</v>
+      </c>
+      <c r="F252" s="4">
+        <v>2.6833333333333331</v>
+      </c>
+      <c r="G252" s="3">
+        <v>1</v>
+      </c>
+      <c r="H252" s="3">
+        <v>1003.2569999999999</v>
+      </c>
+      <c r="I252" s="3">
+        <v>319.35399999999998</v>
+      </c>
+      <c r="J252" s="3">
+        <v>31.25</v>
+      </c>
+      <c r="K252" s="3">
+        <v>0</v>
+      </c>
+      <c r="L252" s="3">
+        <v>31.25</v>
+      </c>
+      <c r="M252" s="3">
+        <v>319.678</v>
+      </c>
+      <c r="N252" s="3">
+        <v>2.7149999999999999</v>
+      </c>
+    </row>
+    <row r="253" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A253" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B253" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C253" s="3">
+        <v>2021</v>
+      </c>
+      <c r="D253" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E253" s="3">
+        <v>5</v>
+      </c>
+      <c r="F253" s="4">
+        <v>2.6833333333333331</v>
+      </c>
+      <c r="G253" s="3">
+        <v>1</v>
+      </c>
+      <c r="H253" s="3">
+        <v>958.697</v>
+      </c>
+      <c r="I253" s="3">
+        <v>324.25900000000001</v>
+      </c>
+      <c r="J253" s="3">
+        <v>29.332999999999998</v>
+      </c>
+      <c r="K253" s="3">
+        <v>0</v>
+      </c>
+      <c r="L253" s="3">
+        <v>28.696999999999999</v>
+      </c>
+      <c r="M253" s="3">
+        <v>325.34699999999998</v>
+      </c>
+      <c r="N253" s="3">
+        <v>2.8319999999999999</v>
+      </c>
+    </row>
+    <row r="254" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A254" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B254" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C254" s="3">
+        <v>2021</v>
+      </c>
+      <c r="D254" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E254" s="3">
+        <v>5</v>
+      </c>
+      <c r="F254" s="4">
+        <v>3.52</v>
+      </c>
+      <c r="G254" s="3">
+        <v>1</v>
+      </c>
+      <c r="H254" s="3">
+        <v>797.62800000000004</v>
+      </c>
+      <c r="I254" s="3">
+        <v>1818.7149999999999</v>
+      </c>
+      <c r="J254" s="3">
+        <v>94.001000000000005</v>
+      </c>
+      <c r="K254" s="3">
+        <v>59.765000000000001</v>
+      </c>
+      <c r="L254" s="3">
+        <v>0</v>
+      </c>
+      <c r="M254" s="3">
+        <v>26.413</v>
+      </c>
+      <c r="N254" s="3">
+        <v>3.778</v>
+      </c>
+    </row>
+    <row r="255" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A255" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B255" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C255" s="3">
+        <v>2021</v>
+      </c>
+      <c r="D255" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E255" s="3">
+        <v>5</v>
+      </c>
+      <c r="F255" s="4">
+        <v>3.52</v>
+      </c>
+      <c r="G255" s="3">
+        <v>1</v>
+      </c>
+      <c r="H255" s="3">
+        <v>799.65700000000004</v>
+      </c>
+      <c r="I255" s="3">
+        <v>1783.654</v>
+      </c>
+      <c r="J255" s="3">
+        <v>98.325000000000003</v>
+      </c>
+      <c r="K255" s="3">
+        <v>61.325000000000003</v>
+      </c>
+      <c r="L255" s="3">
+        <v>0</v>
+      </c>
+      <c r="M255" s="3">
+        <v>30.263999999999999</v>
+      </c>
+      <c r="N255" s="3">
+        <v>3.8250000000000002</v>
+      </c>
+    </row>
+    <row r="256" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A256" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B256" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C256" s="3">
+        <v>2021</v>
+      </c>
+      <c r="D256" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E256" s="3">
+        <v>5</v>
+      </c>
+      <c r="F256" s="4">
+        <v>3.52</v>
+      </c>
+      <c r="G256" s="3">
+        <v>1</v>
+      </c>
+      <c r="H256" s="3">
+        <v>800.26700000000005</v>
+      </c>
+      <c r="I256" s="3">
+        <v>1802.0540000000001</v>
+      </c>
+      <c r="J256" s="3">
+        <v>100.023</v>
+      </c>
+      <c r="K256" s="3">
+        <v>60.665999999999997</v>
+      </c>
+      <c r="L256" s="3">
+        <v>0</v>
+      </c>
+      <c r="M256" s="3">
+        <v>29.567</v>
+      </c>
+      <c r="N256" s="3">
+        <v>3.6539999999999999</v>
+      </c>
+    </row>
+    <row r="257" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A257" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B257" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C257" s="3">
+        <v>2021</v>
+      </c>
+      <c r="D257" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E257" s="3">
+        <v>5</v>
+      </c>
+      <c r="F257" s="4">
+        <v>3.6166666666666667</v>
+      </c>
+      <c r="G257" s="3">
+        <v>1</v>
+      </c>
+      <c r="H257" s="3">
+        <v>975.58199999999999</v>
+      </c>
+      <c r="I257" s="3">
+        <v>403.12799999999999</v>
+      </c>
+      <c r="J257" s="3">
+        <v>49.96</v>
+      </c>
+      <c r="K257" s="3">
+        <v>0</v>
+      </c>
+      <c r="L257" s="3">
+        <v>2.2280000000000002</v>
+      </c>
+      <c r="M257" s="3">
+        <v>167.77600000000001</v>
+      </c>
+      <c r="N257" s="3">
+        <v>2.81</v>
+      </c>
+    </row>
+    <row r="258" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A258" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B258" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C258" s="3">
+        <v>2021</v>
+      </c>
+      <c r="D258" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E258" s="3">
+        <v>5</v>
+      </c>
+      <c r="F258" s="4">
+        <v>3.6166666666666667</v>
+      </c>
+      <c r="G258" s="3">
+        <v>1</v>
+      </c>
+      <c r="H258" s="3">
+        <v>982.35400000000004</v>
+      </c>
+      <c r="I258" s="3">
+        <v>411.298</v>
+      </c>
+      <c r="J258" s="3">
+        <v>52.222000000000001</v>
+      </c>
+      <c r="K258" s="3">
+        <v>0</v>
+      </c>
+      <c r="L258" s="3">
+        <v>3.2450000000000001</v>
+      </c>
+      <c r="M258" s="3">
+        <v>171.26400000000001</v>
+      </c>
+      <c r="N258" s="3">
+        <v>1.998</v>
+      </c>
+    </row>
+    <row r="259" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A259" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B259" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C259" s="3">
+        <v>2021</v>
+      </c>
+      <c r="D259" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E259" s="3">
+        <v>5</v>
+      </c>
+      <c r="F259" s="4">
+        <v>3.6166666666666667</v>
+      </c>
+      <c r="G259" s="3">
+        <v>1</v>
+      </c>
+      <c r="H259" s="3">
+        <v>988.23599999999999</v>
+      </c>
+      <c r="I259" s="3">
+        <v>408.36700000000002</v>
+      </c>
+      <c r="J259" s="3">
+        <v>47.697000000000003</v>
+      </c>
+      <c r="K259" s="3">
+        <v>0</v>
+      </c>
+      <c r="L259" s="3">
+        <v>2.6829999999999998</v>
+      </c>
+      <c r="M259" s="3">
+        <v>164.333</v>
+      </c>
+      <c r="N259" s="3">
+        <v>2.536</v>
+      </c>
+    </row>
+    <row r="260" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A260" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B260" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C260" s="3">
+        <v>2021</v>
+      </c>
+      <c r="D260" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E260" s="3">
+        <v>5</v>
+      </c>
+      <c r="F260" s="4">
+        <v>3.4333333333333331</v>
+      </c>
+      <c r="G260" s="3">
+        <v>1</v>
+      </c>
+      <c r="H260" s="3">
+        <v>659.97799999999995</v>
+      </c>
+      <c r="I260" s="3">
+        <v>822.12</v>
+      </c>
+      <c r="J260" s="3">
+        <v>40.908999999999999</v>
+      </c>
+      <c r="K260" s="3">
+        <v>24.760999999999999</v>
+      </c>
+      <c r="L260" s="3">
+        <v>0</v>
+      </c>
+      <c r="M260" s="3">
+        <v>28.835000000000001</v>
+      </c>
+      <c r="N260" s="3">
+        <v>2.827</v>
+      </c>
+    </row>
+    <row r="261" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A261" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B261" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C261" s="3">
+        <v>2021</v>
+      </c>
+      <c r="D261" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E261" s="3">
+        <v>5</v>
+      </c>
+      <c r="F261" s="4">
+        <v>3.4333333333333331</v>
+      </c>
+      <c r="G261" s="3">
+        <v>1</v>
+      </c>
+      <c r="H261" s="3">
+        <v>665.36699999999996</v>
+      </c>
+      <c r="I261" s="3">
+        <v>900.34699999999998</v>
+      </c>
+      <c r="J261" s="3">
+        <v>42.387</v>
+      </c>
+      <c r="K261" s="3">
+        <v>26.587</v>
+      </c>
+      <c r="L261" s="3">
+        <v>0</v>
+      </c>
+      <c r="M261" s="3">
+        <v>30.277999999999999</v>
+      </c>
+      <c r="N261" s="3">
+        <v>3.0870000000000002</v>
+      </c>
+    </row>
+    <row r="262" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A262" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B262" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C262" s="3">
+        <v>2021</v>
+      </c>
+      <c r="D262" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E262" s="3">
+        <v>5</v>
+      </c>
+      <c r="F262" s="4">
+        <v>3.4333333333333331</v>
+      </c>
+      <c r="G262" s="3">
+        <v>1</v>
+      </c>
+      <c r="H262" s="3">
+        <v>655.279</v>
+      </c>
+      <c r="I262" s="3">
+        <v>835.64700000000005</v>
+      </c>
+      <c r="J262" s="3">
+        <v>44.125</v>
+      </c>
+      <c r="K262" s="3">
+        <v>24.3657</v>
+      </c>
+      <c r="L262" s="3">
+        <v>0</v>
+      </c>
+      <c r="M262" s="3">
+        <v>29.155999999999999</v>
+      </c>
+      <c r="N262" s="3">
+        <v>2.992</v>
+      </c>
+    </row>
+    <row r="263" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A263" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B263" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C263" s="3">
+        <v>2021</v>
+      </c>
+      <c r="D263" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E263" s="3">
+        <v>5</v>
+      </c>
+      <c r="F263" s="4">
+        <v>3.62</v>
+      </c>
+      <c r="G263" s="3">
+        <v>1</v>
+      </c>
+      <c r="H263" s="3">
+        <v>642.44500000000005</v>
+      </c>
+      <c r="I263" s="3">
+        <v>1061.1619000000001</v>
+      </c>
+      <c r="J263" s="3">
+        <v>68.623999999999995</v>
+      </c>
+      <c r="K263" s="3">
+        <v>18.734000000000002</v>
+      </c>
+      <c r="L263" s="3">
+        <v>0</v>
+      </c>
+      <c r="M263" s="3">
+        <v>19.675999999999998</v>
+      </c>
+      <c r="N263" s="3">
+        <v>2.6930000000000001</v>
+      </c>
+    </row>
+    <row r="264" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A264" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B264" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C264" s="3">
+        <v>2021</v>
+      </c>
+      <c r="D264" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E264" s="3">
+        <v>5</v>
+      </c>
+      <c r="F264" s="4">
+        <v>3.62</v>
+      </c>
+      <c r="G264" s="3">
+        <v>1</v>
+      </c>
+      <c r="H264" s="3">
+        <v>632.15700000000004</v>
+      </c>
+      <c r="I264" s="3">
+        <v>997.24599999999998</v>
+      </c>
+      <c r="J264" s="3">
+        <v>70.265000000000001</v>
+      </c>
+      <c r="K264" s="3">
+        <v>19.257999999999999</v>
+      </c>
+      <c r="L264" s="3">
+        <v>0</v>
+      </c>
+      <c r="M264" s="3">
+        <v>20.335000000000001</v>
+      </c>
+      <c r="N264" s="3">
+        <v>2.5550000000000002</v>
+      </c>
+    </row>
+    <row r="265" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A265" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B265" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C265" s="3">
+        <v>2021</v>
+      </c>
+      <c r="D265" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E265" s="3">
+        <v>5</v>
+      </c>
+      <c r="F265" s="4">
+        <v>3.62</v>
+      </c>
+      <c r="G265" s="3">
+        <v>1</v>
+      </c>
+      <c r="H265" s="3">
+        <v>637.66899999999998</v>
+      </c>
+      <c r="I265" s="3">
+        <v>1024.578</v>
+      </c>
+      <c r="J265" s="3">
+        <v>65.338999999999999</v>
+      </c>
+      <c r="K265" s="3">
+        <v>17.332999999999998</v>
+      </c>
+      <c r="L265" s="3">
+        <v>0</v>
+      </c>
+      <c r="M265" s="3">
+        <v>22.196999999999999</v>
+      </c>
+      <c r="N265" s="3">
+        <v>1.9870000000000001</v>
+      </c>
+    </row>
+    <row r="266" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A266" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B266" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C266" s="3">
+        <v>2021</v>
+      </c>
+      <c r="D266" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E266" s="3">
+        <v>5</v>
+      </c>
+      <c r="F266" s="4">
+        <v>3</v>
+      </c>
+      <c r="G266" s="3">
+        <v>1</v>
+      </c>
+      <c r="H266" s="3">
+        <v>910.27700000000004</v>
+      </c>
+      <c r="I266" s="3">
+        <v>840.15300000000002</v>
+      </c>
+      <c r="J266" s="3">
+        <v>22.231999999999999</v>
+      </c>
+      <c r="K266" s="3">
+        <v>22.009</v>
+      </c>
+      <c r="L266" s="3">
+        <v>0</v>
+      </c>
+      <c r="M266" s="3">
+        <v>14.073</v>
+      </c>
+      <c r="N266" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="267" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A267" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B267" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C267" s="3">
+        <v>2021</v>
+      </c>
+      <c r="D267" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E267" s="3">
+        <v>5</v>
+      </c>
+      <c r="F267" s="4">
+        <v>3</v>
+      </c>
+      <c r="G267" s="3">
+        <v>1</v>
+      </c>
+      <c r="H267" s="3">
+        <v>915.62400000000002</v>
+      </c>
+      <c r="I267" s="3">
+        <v>832.154</v>
+      </c>
+      <c r="J267" s="3">
+        <v>19.864000000000001</v>
+      </c>
+      <c r="K267" s="3">
+        <v>15.667</v>
+      </c>
+      <c r="L267" s="3">
+        <v>0</v>
+      </c>
+      <c r="M267" s="3">
+        <v>20.123999999999999</v>
+      </c>
+      <c r="N267" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="268" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A268" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B268" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C268" s="3">
+        <v>2021</v>
+      </c>
+      <c r="D268" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E268" s="3">
+        <v>5</v>
+      </c>
+      <c r="F268" s="4">
+        <v>3</v>
+      </c>
+      <c r="G268" s="3">
+        <v>1</v>
+      </c>
+      <c r="H268" s="3">
+        <v>933.01199999999994</v>
+      </c>
+      <c r="I268" s="3">
+        <v>835.26400000000001</v>
+      </c>
+      <c r="J268" s="3">
+        <v>20.245000000000001</v>
+      </c>
+      <c r="K268" s="3">
+        <v>18.661999999999999</v>
+      </c>
+      <c r="L268" s="3">
+        <v>0</v>
+      </c>
+      <c r="M268" s="3">
+        <v>19.533999999999999</v>
+      </c>
+      <c r="N268" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="269" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A269" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B269" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C269" s="3">
+        <v>2021</v>
+      </c>
+      <c r="D269" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E269" s="3">
+        <v>5</v>
+      </c>
+      <c r="F269" s="4">
+        <v>3.63</v>
+      </c>
+      <c r="G269" s="3">
+        <v>1</v>
+      </c>
+      <c r="H269" s="3">
+        <v>738.245</v>
+      </c>
+      <c r="I269" s="3">
+        <v>568.726</v>
+      </c>
+      <c r="J269" s="3">
+        <v>4.2880000000000003</v>
+      </c>
+      <c r="K269" s="3">
+        <v>4.508</v>
+      </c>
+      <c r="L269" s="3">
+        <v>0.876</v>
+      </c>
+      <c r="M269" s="3">
+        <v>18.286000000000001</v>
+      </c>
+      <c r="N269" s="3">
+        <v>3.6030000000000002</v>
+      </c>
+    </row>
+    <row r="270" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A270" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B270" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C270" s="3">
+        <v>2021</v>
+      </c>
+      <c r="D270" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E270" s="3">
+        <v>5</v>
+      </c>
+      <c r="F270" s="4">
+        <v>3.63</v>
+      </c>
+      <c r="G270" s="3">
+        <v>1</v>
+      </c>
+      <c r="H270" s="3">
+        <v>744.23599999999999</v>
+      </c>
+      <c r="I270" s="3">
+        <v>573.35699999999997</v>
+      </c>
+      <c r="J270" s="3">
+        <v>4.9850000000000003</v>
+      </c>
+      <c r="K270" s="3">
+        <v>4.5979999999999999</v>
+      </c>
+      <c r="L270" s="3">
+        <v>0.999</v>
+      </c>
+      <c r="M270" s="3">
+        <v>19.367000000000001</v>
+      </c>
+      <c r="N270" s="3">
+        <v>4.0209999999999999</v>
+      </c>
+    </row>
+    <row r="271" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A271" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B271" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C271" s="3">
+        <v>2021</v>
+      </c>
+      <c r="D271" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E271" s="3">
+        <v>5</v>
+      </c>
+      <c r="F271" s="4">
+        <v>3.63</v>
+      </c>
+      <c r="G271" s="3">
+        <v>1</v>
+      </c>
+      <c r="H271" s="3">
+        <v>731.89400000000001</v>
+      </c>
+      <c r="I271" s="3">
+        <v>582.34500000000003</v>
+      </c>
+      <c r="J271" s="3">
+        <v>4.5549999999999997</v>
+      </c>
+      <c r="K271" s="3">
+        <v>4.024</v>
+      </c>
+      <c r="L271" s="3">
+        <v>1.0349999999999999</v>
+      </c>
+      <c r="M271" s="3">
+        <v>20.056999999999999</v>
+      </c>
+      <c r="N271" s="3">
+        <v>3.9870000000000001</v>
+      </c>
+    </row>
+    <row r="272" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A272" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B272" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C272" s="3">
+        <v>2021</v>
+      </c>
+      <c r="D272" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E272" s="3">
+        <v>5</v>
+      </c>
+      <c r="F272" s="4">
+        <v>3.1166666666666667</v>
+      </c>
+      <c r="G272" s="3">
+        <v>1</v>
+      </c>
+      <c r="H272" s="3">
+        <v>878.69100000000003</v>
+      </c>
+      <c r="I272" s="3">
+        <v>1401.1179999999999</v>
+      </c>
+      <c r="J272" s="3">
+        <v>18.75</v>
+      </c>
+      <c r="K272" s="3">
+        <v>34.423999999999999</v>
+      </c>
+      <c r="L272" s="3">
+        <v>2.448</v>
+      </c>
+      <c r="M272" s="3">
+        <v>16.716000000000001</v>
+      </c>
+      <c r="N272" s="3">
+        <v>2.7770000000000001</v>
+      </c>
+    </row>
+    <row r="273" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A273" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B273" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C273" s="3">
+        <v>2021</v>
+      </c>
+      <c r="D273" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E273" s="3">
+        <v>5</v>
+      </c>
+      <c r="F273" s="4">
+        <v>3.1166666666666667</v>
+      </c>
+      <c r="G273" s="3">
+        <v>1</v>
+      </c>
+      <c r="H273" s="3">
+        <v>881.32500000000005</v>
+      </c>
+      <c r="I273" s="3">
+        <v>1399.365</v>
+      </c>
+      <c r="J273" s="3">
+        <v>19.661999999999999</v>
+      </c>
+      <c r="K273" s="3">
+        <v>32.353999999999999</v>
+      </c>
+      <c r="L273" s="3">
+        <v>2.6629999999999998</v>
+      </c>
+      <c r="M273" s="3">
+        <v>20.347000000000001</v>
+      </c>
+      <c r="N273" s="3">
+        <v>3.214</v>
+      </c>
+    </row>
+    <row r="274" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A274" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B274" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C274" s="3">
+        <v>2021</v>
+      </c>
+      <c r="D274" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E274" s="3">
+        <v>5</v>
+      </c>
+      <c r="F274" s="4">
+        <v>3.1166666666666667</v>
+      </c>
+      <c r="G274" s="3">
+        <v>1</v>
+      </c>
+      <c r="H274" s="3">
+        <v>864.05399999999997</v>
+      </c>
+      <c r="I274" s="3">
+        <v>1389.67</v>
+      </c>
+      <c r="J274" s="3">
+        <v>15.365</v>
+      </c>
+      <c r="K274" s="3">
+        <v>36.226999999999997</v>
+      </c>
+      <c r="L274" s="3">
+        <v>2.4569999999999999</v>
+      </c>
+      <c r="M274" s="3">
+        <v>19.678000000000001</v>
+      </c>
+      <c r="N274" s="3">
+        <v>2.8719999999999999</v>
+      </c>
+    </row>
+    <row r="275" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A275" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B275" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C275" s="3">
+        <v>2021</v>
+      </c>
+      <c r="D275" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E275" s="3">
+        <v>5</v>
+      </c>
+      <c r="F275" s="4">
+        <v>3.1333333333333333</v>
+      </c>
+      <c r="G275" s="3">
+        <v>1</v>
+      </c>
+      <c r="H275" s="3">
+        <v>784.654</v>
+      </c>
+      <c r="I275" s="3">
+        <v>690.64800000000002</v>
+      </c>
+      <c r="J275" s="3">
+        <v>0</v>
+      </c>
+      <c r="K275" s="3">
+        <v>13.234999999999999</v>
+      </c>
+      <c r="L275" s="3">
+        <v>1.9710000000000001</v>
+      </c>
+      <c r="M275" s="3">
+        <v>19.643000000000001</v>
+      </c>
+      <c r="N275" s="3">
+        <v>2.8679999999999999</v>
+      </c>
+    </row>
+    <row r="276" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A276" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B276" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C276" s="3">
+        <v>2021</v>
+      </c>
+      <c r="D276" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E276" s="3">
+        <v>5</v>
+      </c>
+      <c r="F276" s="4">
+        <v>3.1333333333333333</v>
+      </c>
+      <c r="G276" s="3">
+        <v>1</v>
+      </c>
+      <c r="H276" s="3">
+        <v>793.32399999999996</v>
+      </c>
+      <c r="I276" s="3">
+        <v>699.32399999999996</v>
+      </c>
+      <c r="J276" s="3">
+        <v>0</v>
+      </c>
+      <c r="K276" s="3">
+        <v>13.337</v>
+      </c>
+      <c r="L276" s="3">
+        <v>2.0350000000000001</v>
+      </c>
+      <c r="M276" s="3">
+        <v>19.986999999999998</v>
+      </c>
+      <c r="N276" s="3">
+        <v>3.2149999999999999</v>
+      </c>
+    </row>
+    <row r="277" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A277" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B277" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C277" s="3">
+        <v>2021</v>
+      </c>
+      <c r="D277" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E277" s="3">
+        <v>5</v>
+      </c>
+      <c r="F277" s="4">
+        <v>3.1333333333333333</v>
+      </c>
+      <c r="G277" s="3">
+        <v>1</v>
+      </c>
+      <c r="H277" s="3">
+        <v>801.38900000000001</v>
+      </c>
+      <c r="I277" s="3">
+        <v>701.32500000000005</v>
+      </c>
+      <c r="J277" s="3">
+        <v>0</v>
+      </c>
+      <c r="K277" s="3">
+        <v>12.957000000000001</v>
+      </c>
+      <c r="L277" s="3">
+        <v>1.9670000000000001</v>
+      </c>
+      <c r="M277" s="3">
+        <v>20.254000000000001</v>
+      </c>
+      <c r="N277" s="3">
+        <v>2.9910000000000001</v>
+      </c>
+    </row>
+    <row r="278" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A278" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B278" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C278" s="3">
+        <v>2021</v>
+      </c>
+      <c r="D278" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E278" s="3">
+        <v>5</v>
+      </c>
+      <c r="F278" s="4">
+        <v>3.5333333333333332</v>
+      </c>
+      <c r="G278" s="3">
+        <v>1</v>
+      </c>
+      <c r="H278" s="3">
+        <v>717.09299999999996</v>
+      </c>
+      <c r="I278" s="3">
+        <v>1110.924</v>
+      </c>
+      <c r="J278" s="3">
+        <v>21.946999999999999</v>
+      </c>
+      <c r="K278" s="3">
+        <v>35.204000000000001</v>
+      </c>
+      <c r="L278" s="3">
+        <v>1.343</v>
+      </c>
+      <c r="M278" s="3">
+        <v>51.411000000000001</v>
+      </c>
+      <c r="N278" s="3">
+        <v>3.5110000000000001</v>
+      </c>
+    </row>
+    <row r="279" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A279" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B279" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C279" s="3">
+        <v>2021</v>
+      </c>
+      <c r="D279" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E279" s="3">
+        <v>5</v>
+      </c>
+      <c r="F279" s="4">
+        <v>3.5333333333333332</v>
+      </c>
+      <c r="G279" s="3">
+        <v>1</v>
+      </c>
+      <c r="H279" s="3">
+        <v>712.36699999999996</v>
+      </c>
+      <c r="I279" s="3">
+        <v>1039.8900000000001</v>
+      </c>
+      <c r="J279" s="3">
+        <v>21.536999999999999</v>
+      </c>
+      <c r="K279" s="3">
+        <v>35.366999999999997</v>
+      </c>
+      <c r="L279" s="3">
+        <v>1.456</v>
+      </c>
+      <c r="M279" s="3">
+        <v>49.337000000000003</v>
+      </c>
+      <c r="N279" s="3">
+        <v>2.9870000000000001</v>
+      </c>
+    </row>
+    <row r="280" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A280" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B280" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C280" s="3">
+        <v>2021</v>
+      </c>
+      <c r="D280" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E280" s="3">
+        <v>5</v>
+      </c>
+      <c r="F280" s="4">
+        <v>3.5333333333333332</v>
+      </c>
+      <c r="G280" s="3">
+        <v>1</v>
+      </c>
+      <c r="H280" s="3">
+        <v>722.39200000000005</v>
+      </c>
+      <c r="I280" s="3">
+        <v>1100.365</v>
+      </c>
+      <c r="J280" s="3">
+        <v>20.335999999999999</v>
+      </c>
+      <c r="K280" s="3">
+        <v>37.692</v>
+      </c>
+      <c r="L280" s="3">
+        <v>1.397</v>
+      </c>
+      <c r="M280" s="3">
+        <v>50.279000000000003</v>
+      </c>
+      <c r="N280" s="3">
+        <v>3.6539999999999999</v>
+      </c>
+    </row>
+    <row r="281" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A281" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B281" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C281" s="3">
+        <v>2021</v>
+      </c>
+      <c r="D281" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E281" s="3">
+        <v>5</v>
+      </c>
+      <c r="F281" s="4">
+        <v>3.6500000000000004</v>
+      </c>
+      <c r="G281" s="3">
+        <v>1</v>
+      </c>
+      <c r="H281" s="3">
+        <v>544.02200000000005</v>
+      </c>
+      <c r="I281" s="3">
+        <v>837.44600000000003</v>
+      </c>
+      <c r="J281" s="3">
+        <v>20.033999999999999</v>
+      </c>
+      <c r="K281" s="3">
+        <v>18.454000000000001</v>
+      </c>
+      <c r="L281" s="3">
+        <v>0</v>
+      </c>
+      <c r="M281" s="3">
+        <v>11.369</v>
+      </c>
+      <c r="N281" s="3">
+        <v>2.73</v>
+      </c>
+    </row>
+    <row r="282" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A282" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B282" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C282" s="3">
+        <v>2021</v>
+      </c>
+      <c r="D282" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E282" s="3">
+        <v>5</v>
+      </c>
+      <c r="F282" s="4">
+        <v>3.6500000000000004</v>
+      </c>
+      <c r="G282" s="3">
+        <v>1</v>
+      </c>
+      <c r="H282" s="3">
+        <v>552.36</v>
+      </c>
+      <c r="I282" s="3">
+        <v>864.97799999999995</v>
+      </c>
+      <c r="J282" s="3">
+        <v>21.367000000000001</v>
+      </c>
+      <c r="K282" s="3">
+        <v>19.335000000000001</v>
+      </c>
+      <c r="L282" s="3">
+        <v>0</v>
+      </c>
+      <c r="M282" s="3">
+        <v>12.122999999999999</v>
+      </c>
+      <c r="N282" s="3">
+        <v>2.9870000000000001</v>
+      </c>
+    </row>
+    <row r="283" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A283" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B283" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C283" s="3">
+        <v>2021</v>
+      </c>
+      <c r="D283" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E283" s="3">
+        <v>5</v>
+      </c>
+      <c r="F283" s="4">
+        <v>3.6500000000000004</v>
+      </c>
+      <c r="G283" s="3">
+        <v>1</v>
+      </c>
+      <c r="H283" s="3">
+        <v>549.678</v>
+      </c>
+      <c r="I283" s="3">
+        <v>903.55</v>
+      </c>
+      <c r="J283" s="3">
+        <v>17.657</v>
+      </c>
+      <c r="K283" s="3">
+        <v>16.57</v>
+      </c>
+      <c r="L283" s="3">
+        <v>0</v>
+      </c>
+      <c r="M283" s="3">
+        <v>11.654</v>
+      </c>
+      <c r="N283" s="3">
+        <v>3.45</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
